--- a/src/attributions/attributions_saliency_traj_493.xlsx
+++ b/src/attributions/attributions_saliency_traj_493.xlsx
@@ -1573,1140 +1573,1140 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.893876782967709e-05</v>
+        <v>0.1264536529779434</v>
       </c>
       <c r="B3" t="n">
-        <v>7.784667104715481e-06</v>
+        <v>0.3528880476951599</v>
       </c>
       <c r="C3" t="n">
-        <v>3.96821451431606e-05</v>
+        <v>0.03905352205038071</v>
       </c>
       <c r="D3" t="n">
-        <v>2.560167195042595e-05</v>
+        <v>0.06473144888877869</v>
       </c>
       <c r="E3" t="n">
-        <v>6.625054083997384e-05</v>
+        <v>0.08151360601186752</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001298501883866265</v>
+        <v>0.378425270318985</v>
       </c>
       <c r="G3" t="n">
-        <v>3.699176158988848e-05</v>
+        <v>0.05527158454060555</v>
       </c>
       <c r="H3" t="n">
-        <v>2.024138484557625e-05</v>
+        <v>0.1855717301368713</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001096694541047327</v>
+        <v>0.0325767807662487</v>
       </c>
       <c r="J3" t="n">
-        <v>2.180290539399721e-05</v>
+        <v>0.159393772482872</v>
       </c>
       <c r="K3" t="n">
-        <v>7.845295840525068e-06</v>
+        <v>0.3330700695514679</v>
       </c>
       <c r="L3" t="n">
-        <v>5.086803867015988e-05</v>
+        <v>0.0005597919225692749</v>
       </c>
       <c r="M3" t="n">
-        <v>6.975278665777296e-07</v>
+        <v>0.1026084572076797</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9666574341245e-05</v>
+        <v>0.1257431954145432</v>
       </c>
       <c r="O3" t="n">
-        <v>2.607911665108986e-05</v>
+        <v>0.2400960028171539</v>
       </c>
       <c r="P3" t="n">
-        <v>1.688688644208014e-05</v>
+        <v>0.01770560257136822</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.394062175881118e-05</v>
+        <v>0.08648102730512619</v>
       </c>
       <c r="R3" t="n">
-        <v>3.068942169193178e-05</v>
+        <v>0.09123822301626205</v>
       </c>
       <c r="S3" t="n">
-        <v>1.030916246236302e-05</v>
+        <v>0.08771352469921112</v>
       </c>
       <c r="T3" t="n">
-        <v>1.61005027621286e-06</v>
+        <v>0.02647977694869041</v>
       </c>
       <c r="U3" t="n">
-        <v>1.042370877257781e-05</v>
+        <v>0.0675600990653038</v>
       </c>
       <c r="V3" t="n">
-        <v>8.62974593474064e-06</v>
+        <v>0.07735854387283325</v>
       </c>
       <c r="W3" t="n">
-        <v>3.856253442791058e-06</v>
+        <v>0.176378458738327</v>
       </c>
       <c r="X3" t="n">
-        <v>1.635410285416583e-06</v>
+        <v>0.09763182699680328</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.308215961325914e-05</v>
+        <v>0.04124985635280609</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.601274147513323e-05</v>
+        <v>0.001735229045152664</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.303783266048413e-06</v>
+        <v>0.0728844627737999</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.940105544752441e-06</v>
+        <v>0.1119833439588547</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.810519643186126e-05</v>
+        <v>0.02001401036977768</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.152200366050238e-05</v>
+        <v>0.009751798585057259</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.158452353905886e-05</v>
+        <v>0.0249420702457428</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.602982178563252e-05</v>
+        <v>0.1106472611427307</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.528024586150423e-05</v>
+        <v>0.03501294180750847</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.047513695899397e-05</v>
+        <v>0.0715215727686882</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.839664037106559e-05</v>
+        <v>0.006170941982418299</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.935842374223284e-05</v>
+        <v>0.08393698930740356</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.787204488820862e-06</v>
+        <v>0.1078987866640091</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.667041189852171e-05</v>
+        <v>0.005965002346783876</v>
       </c>
       <c r="AM3" t="n">
-        <v>4.025647740490967e-06</v>
+        <v>0.02106329426169395</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.264541399199516e-05</v>
+        <v>0.06392203271389008</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.977765143441502e-05</v>
+        <v>0.04618635401129723</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.287549139306066e-06</v>
+        <v>0.1502823531627655</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.343983967672102e-05</v>
+        <v>0.01406645961105824</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.968165452126414e-05</v>
+        <v>0.03222130984067917</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.023926936089993e-05</v>
+        <v>0.02020819671452045</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.584237128961831e-05</v>
+        <v>0.1016506403684616</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.832727321016137e-05</v>
+        <v>0.1637948900461197</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.325413101469167e-05</v>
+        <v>0.06772065162658691</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.541892874636687e-05</v>
+        <v>0.03099077008664608</v>
       </c>
       <c r="AX3" t="n">
-        <v>8.420563244726509e-05</v>
+        <v>0.02217420749366283</v>
       </c>
       <c r="AY3" t="n">
-        <v>2.761860059763421e-06</v>
+        <v>0.04552748426795006</v>
       </c>
       <c r="AZ3" t="n">
-        <v>5.906417936785147e-05</v>
+        <v>0.1308492869138718</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.719828989938833e-05</v>
+        <v>0.06553547829389572</v>
       </c>
       <c r="BB3" t="n">
-        <v>3.15890611091163e-05</v>
+        <v>0.04066851362586021</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.040731604007306e-05</v>
+        <v>0.1489979475736618</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.773016603896394e-06</v>
+        <v>0.03279463946819305</v>
       </c>
       <c r="BE3" t="n">
-        <v>3.811877377302153e-06</v>
+        <v>0.1520989239215851</v>
       </c>
       <c r="BF3" t="n">
-        <v>2.266326009703334e-05</v>
+        <v>0.1061523109674454</v>
       </c>
       <c r="BG3" t="n">
-        <v>2.974531525978819e-05</v>
+        <v>0.09131408482789993</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.275737940886756e-05</v>
+        <v>0.1527037620544434</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.040888946590712e-05</v>
+        <v>0.1381756663322449</v>
       </c>
       <c r="BJ3" t="n">
-        <v>2.880192732845899e-05</v>
+        <v>0.1336645036935806</v>
       </c>
       <c r="BK3" t="n">
-        <v>4.083476960659027e-05</v>
+        <v>0.05161137878894806</v>
       </c>
       <c r="BL3" t="n">
-        <v>7.018707947281655e-06</v>
+        <v>0.04676587134599686</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.717958548397291e-05</v>
+        <v>0.02114566788077354</v>
       </c>
       <c r="BN3" t="n">
-        <v>3.41564236805425e-06</v>
+        <v>0.005724562797695398</v>
       </c>
       <c r="BO3" t="n">
-        <v>1.005677222565282e-05</v>
+        <v>0.06254864484071732</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.382373193337116e-05</v>
+        <v>0.01827055402100086</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.940902802743949e-05</v>
+        <v>0.04338778555393219</v>
       </c>
       <c r="BR3" t="n">
-        <v>5.21741230841144e-06</v>
+        <v>0.02732751704752445</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.063649597199401e-05</v>
+        <v>0.02194719016551971</v>
       </c>
       <c r="BT3" t="n">
-        <v>2.068089543172391e-06</v>
+        <v>0.08811949193477631</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.821240221033804e-05</v>
+        <v>0.03623871505260468</v>
       </c>
       <c r="BV3" t="n">
-        <v>2.947890834548161e-06</v>
+        <v>0.1046203076839447</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.799135861801915e-05</v>
+        <v>0.007032354362308979</v>
       </c>
       <c r="BX3" t="n">
-        <v>6.044298424967565e-05</v>
+        <v>0.04583064094185829</v>
       </c>
       <c r="BY3" t="n">
-        <v>6.979540194151923e-05</v>
+        <v>0.05687861144542694</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3.828890839940868e-05</v>
+        <v>0.08808588236570358</v>
       </c>
       <c r="CA3" t="n">
-        <v>7.94797142589232e-06</v>
+        <v>0.02094932645559311</v>
       </c>
       <c r="CB3" t="n">
-        <v>2.417539508314803e-05</v>
+        <v>0.01997782848775387</v>
       </c>
       <c r="CC3" t="n">
-        <v>3.491804091027007e-05</v>
+        <v>0.02477243915200233</v>
       </c>
       <c r="CD3" t="n">
-        <v>5.018998308514711e-06</v>
+        <v>0.04984845221042633</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.229244389833184e-05</v>
+        <v>0.06659962981939316</v>
       </c>
       <c r="CF3" t="n">
-        <v>6.37971470496268e-06</v>
+        <v>0.002000553067773581</v>
       </c>
       <c r="CG3" t="n">
-        <v>2.006415161304176e-05</v>
+        <v>0.0370355136692524</v>
       </c>
       <c r="CH3" t="n">
-        <v>2.044360917352606e-05</v>
+        <v>0.05821166932582855</v>
       </c>
       <c r="CI3" t="n">
-        <v>5.21588344781776e-06</v>
+        <v>0.06704369932413101</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1.704891474219039e-05</v>
+        <v>0.01370962243527174</v>
       </c>
       <c r="CK3" t="n">
-        <v>1.156889447884168e-05</v>
+        <v>0.003737006336450577</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.416103714291239e-06</v>
+        <v>0.002465769182890654</v>
       </c>
       <c r="CM3" t="n">
-        <v>7.345938684011344e-07</v>
+        <v>0.09484678506851196</v>
       </c>
       <c r="CN3" t="n">
-        <v>4.841302597924368e-06</v>
+        <v>0.1200937852263451</v>
       </c>
       <c r="CO3" t="n">
-        <v>8.167473879439058e-07</v>
+        <v>0.1028684973716736</v>
       </c>
       <c r="CP3" t="n">
-        <v>4.418431853991933e-05</v>
+        <v>0.1032827794551849</v>
       </c>
       <c r="CQ3" t="n">
-        <v>6.893135378049919e-06</v>
+        <v>0.06808041036128998</v>
       </c>
       <c r="CR3" t="n">
-        <v>7.237999398057582e-06</v>
+        <v>0.1806284785270691</v>
       </c>
       <c r="CS3" t="n">
-        <v>2.439912350382656e-06</v>
+        <v>0.0768025666475296</v>
       </c>
       <c r="CT3" t="n">
-        <v>2.883997512981296e-05</v>
+        <v>0.05049438029527664</v>
       </c>
       <c r="CU3" t="n">
-        <v>2.588116694823839e-05</v>
+        <v>0.1269764751195908</v>
       </c>
       <c r="CV3" t="n">
-        <v>7.058878054522211e-06</v>
+        <v>0.05842328816652298</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.174042245111195e-05</v>
+        <v>0.07859279215335846</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.788802137525636e-06</v>
+        <v>0.0133023913949728</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.069719928636914e-05</v>
+        <v>0.01311496365815401</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.643425457587e-05</v>
+        <v>0.0657506063580513</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.008710569294635e-05</v>
+        <v>0.06246951967477798</v>
       </c>
       <c r="DB3" t="n">
-        <v>7.035792350507108e-06</v>
+        <v>0.009299132972955704</v>
       </c>
       <c r="DC3" t="n">
-        <v>9.715457053971477e-06</v>
+        <v>0.04336094856262207</v>
       </c>
       <c r="DD3" t="n">
-        <v>1.752381649566814e-05</v>
+        <v>0.01862365752458572</v>
       </c>
       <c r="DE3" t="n">
-        <v>1.193490425066557e-05</v>
+        <v>0.02633420191705227</v>
       </c>
       <c r="DF3" t="n">
-        <v>2.062372550426517e-05</v>
+        <v>0.2421312928199768</v>
       </c>
       <c r="DG3" t="n">
-        <v>3.747224400285631e-05</v>
+        <v>0.007522574625909328</v>
       </c>
       <c r="DH3" t="n">
-        <v>2.808789940900169e-05</v>
+        <v>0.007195060607045889</v>
       </c>
       <c r="DI3" t="n">
-        <v>5.788419730379246e-05</v>
+        <v>0.4792273938655853</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.141872780863196e-05</v>
+        <v>0.0662483423948288</v>
       </c>
       <c r="DK3" t="n">
-        <v>2.382629463681951e-05</v>
+        <v>0.05470206961035728</v>
       </c>
       <c r="DL3" t="n">
-        <v>1.878115290310234e-05</v>
+        <v>0.07558190822601318</v>
       </c>
       <c r="DM3" t="n">
-        <v>1.177942976937629e-05</v>
+        <v>0.004203201737254858</v>
       </c>
       <c r="DN3" t="n">
-        <v>9.086182217288297e-06</v>
+        <v>0.07019760459661484</v>
       </c>
       <c r="DO3" t="n">
-        <v>5.349679668142926e-06</v>
+        <v>0.04723577946424484</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.237559445144143e-05</v>
+        <v>0.01603535190224648</v>
       </c>
       <c r="DQ3" t="n">
-        <v>2.053048228845e-05</v>
+        <v>0.01385679934173822</v>
       </c>
       <c r="DR3" t="n">
-        <v>5.979340130579658e-06</v>
+        <v>0.1627186685800552</v>
       </c>
       <c r="DS3" t="n">
-        <v>8.950743904279079e-06</v>
+        <v>0.05789177119731903</v>
       </c>
       <c r="DT3" t="n">
-        <v>3.633958840509877e-07</v>
+        <v>0.1183401197195053</v>
       </c>
       <c r="DU3" t="n">
-        <v>2.674009192560334e-05</v>
+        <v>0.02238807827234268</v>
       </c>
       <c r="DV3" t="n">
-        <v>7.033142992440844e-07</v>
+        <v>0.02765397168695927</v>
       </c>
       <c r="DW3" t="n">
-        <v>9.551305993227288e-06</v>
+        <v>0.08595463633537292</v>
       </c>
       <c r="DX3" t="n">
-        <v>7.47460990169202e-06</v>
+        <v>0.01723740249872208</v>
       </c>
       <c r="DY3" t="n">
-        <v>8.100896593532525e-06</v>
+        <v>0.09467067569494247</v>
       </c>
       <c r="DZ3" t="n">
-        <v>8.098728358163498e-06</v>
+        <v>0.008469225838780403</v>
       </c>
       <c r="EA3" t="n">
-        <v>3.509151792968623e-05</v>
+        <v>0.07806016504764557</v>
       </c>
       <c r="EB3" t="n">
-        <v>1.561055978527293e-05</v>
+        <v>0.04417391866445541</v>
       </c>
       <c r="EC3" t="n">
-        <v>3.166271199006587e-05</v>
+        <v>0.036993358284235</v>
       </c>
       <c r="ED3" t="n">
-        <v>3.531115908117499e-06</v>
+        <v>0.02002052962779999</v>
       </c>
       <c r="EE3" t="n">
-        <v>2.216374377894681e-05</v>
+        <v>0.02751986123621464</v>
       </c>
       <c r="EF3" t="n">
-        <v>6.184792709973408e-06</v>
+        <v>0.1270080059766769</v>
       </c>
       <c r="EG3" t="n">
-        <v>2.335513272555545e-05</v>
+        <v>0.08832389861345291</v>
       </c>
       <c r="EH3" t="n">
-        <v>1.016431451716926e-05</v>
+        <v>0.05510588735342026</v>
       </c>
       <c r="EI3" t="n">
-        <v>1.878968760138378e-05</v>
+        <v>0.04382621496915817</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.53100900206482e-05</v>
+        <v>0.1170204654335976</v>
       </c>
       <c r="EK3" t="n">
-        <v>7.124492640286917e-06</v>
+        <v>0.1582095921039581</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.639407173570362e-06</v>
+        <v>0.02404117770493031</v>
       </c>
       <c r="EM3" t="n">
-        <v>3.474186996754725e-06</v>
+        <v>0.05850386992096901</v>
       </c>
       <c r="EN3" t="n">
-        <v>1.293527566303965e-05</v>
+        <v>0.03421294689178467</v>
       </c>
       <c r="EO3" t="n">
-        <v>9.09994741959963e-06</v>
+        <v>0.01700258627533913</v>
       </c>
       <c r="EP3" t="n">
-        <v>5.510785740625579e-06</v>
+        <v>0.1517448425292969</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.178658021672163e-05</v>
+        <v>0.05582018196582794</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.587531733093783e-05</v>
+        <v>0.03775504231452942</v>
       </c>
       <c r="ES3" t="n">
-        <v>3.995412043877877e-05</v>
+        <v>0.02031985111534595</v>
       </c>
       <c r="ET3" t="n">
-        <v>2.162478813261259e-05</v>
+        <v>0.009222691878676414</v>
       </c>
       <c r="EU3" t="n">
-        <v>4.066710243932903e-05</v>
+        <v>0.04233554005622864</v>
       </c>
       <c r="EV3" t="n">
-        <v>2.579874035291141e-06</v>
+        <v>0.005005091428756714</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.557380346639547e-05</v>
+        <v>0.08125501871109009</v>
       </c>
       <c r="EX3" t="n">
-        <v>5.798601705464534e-06</v>
+        <v>0.06770473718643188</v>
       </c>
       <c r="EY3" t="n">
-        <v>1.358041390631115e-05</v>
+        <v>0.08844888210296631</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3.764971779673942e-06</v>
+        <v>0.01703266054391861</v>
       </c>
       <c r="FA3" t="n">
-        <v>1.545999657537322e-05</v>
+        <v>0.03536524623632431</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.538959077151958e-05</v>
+        <v>0.05234096571803093</v>
       </c>
       <c r="FC3" t="n">
-        <v>1.648177931201644e-05</v>
+        <v>0.05994988977909088</v>
       </c>
       <c r="FD3" t="n">
-        <v>6.475753707491094e-06</v>
+        <v>0.02041313797235489</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.043460633809445e-05</v>
+        <v>0.03748760372400284</v>
       </c>
       <c r="FF3" t="n">
-        <v>8.476343282382004e-06</v>
+        <v>0.01644321717321873</v>
       </c>
       <c r="FG3" t="n">
-        <v>6.536050022987183e-06</v>
+        <v>0.05160365253686905</v>
       </c>
       <c r="FH3" t="n">
-        <v>9.00628583622165e-06</v>
+        <v>0.009983599185943604</v>
       </c>
       <c r="FI3" t="n">
-        <v>3.468221621005796e-08</v>
+        <v>0.1172416731715202</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.036146659316728e-05</v>
+        <v>0.05500829964876175</v>
       </c>
       <c r="FK3" t="n">
-        <v>5.27185620740056e-05</v>
+        <v>0.07091555744409561</v>
       </c>
       <c r="FL3" t="n">
-        <v>2.478848546161316e-05</v>
+        <v>0.02281193062663078</v>
       </c>
       <c r="FM3" t="n">
-        <v>3.258641299908049e-05</v>
+        <v>0.05079866573214531</v>
       </c>
       <c r="FN3" t="n">
-        <v>4.19775233240216e-06</v>
+        <v>0.06335458904504776</v>
       </c>
       <c r="FO3" t="n">
-        <v>3.86342617275659e-06</v>
+        <v>0.008448475040495396</v>
       </c>
       <c r="FP3" t="n">
-        <v>2.126170102201286e-06</v>
+        <v>0.02725237607955933</v>
       </c>
       <c r="FQ3" t="n">
-        <v>2.648473673616536e-05</v>
+        <v>0.08299282193183899</v>
       </c>
       <c r="FR3" t="n">
-        <v>3.296693193988176e-06</v>
+        <v>0.1716160178184509</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.0001045075259753503</v>
+        <v>0.06208357214927673</v>
       </c>
       <c r="FT3" t="n">
-        <v>1.130738382926211e-06</v>
+        <v>0.1077361106872559</v>
       </c>
       <c r="FU3" t="n">
-        <v>4.471150532481261e-05</v>
+        <v>0.03950925916433334</v>
       </c>
       <c r="FV3" t="n">
-        <v>2.567085175542161e-05</v>
+        <v>0.1356835812330246</v>
       </c>
       <c r="FW3" t="n">
-        <v>3.174359335389454e-07</v>
+        <v>0.006432086229324341</v>
       </c>
       <c r="FX3" t="n">
-        <v>3.442864908720367e-05</v>
+        <v>0.006128943525254726</v>
       </c>
       <c r="FY3" t="n">
-        <v>9.896840310830157e-06</v>
+        <v>0.07357949018478394</v>
       </c>
       <c r="FZ3" t="n">
-        <v>6.261079761316068e-07</v>
+        <v>0.02607122622430325</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.37412098411005e-06</v>
+        <v>0.0180235393345356</v>
       </c>
       <c r="GB3" t="n">
-        <v>4.947306933900109e-06</v>
+        <v>0.01306119374930859</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.824093487812206e-05</v>
+        <v>0.1308556199073792</v>
       </c>
       <c r="GD3" t="n">
-        <v>2.922954081441276e-05</v>
+        <v>0.05096593126654625</v>
       </c>
       <c r="GE3" t="n">
-        <v>2.489866528776474e-05</v>
+        <v>0.03804986923933029</v>
       </c>
       <c r="GF3" t="n">
-        <v>5.030424290453084e-06</v>
+        <v>0.00218692235648632</v>
       </c>
       <c r="GG3" t="n">
-        <v>4.060200444655493e-05</v>
+        <v>0.03525830060243607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1610731929540634</v>
+        <v>0.006717463955283165</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08892117440700531</v>
+        <v>0.4125069975852966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03423998132348061</v>
+        <v>0.03311329334974289</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09830236434936523</v>
+        <v>0.009039377793669701</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1940722465515137</v>
+        <v>0.05102282762527466</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09531751275062561</v>
+        <v>0.3206063210964203</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1794618219137192</v>
+        <v>0.0188458152115345</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1086248978972435</v>
+        <v>0.1476935148239136</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1064264178276062</v>
+        <v>0.03064831160008907</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1395662277936935</v>
+        <v>0.08164007216691971</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1096994578838348</v>
+        <v>0.3056216537952423</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01613604836165905</v>
+        <v>0.00931210070848465</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08705375343561172</v>
+        <v>0.1852769106626511</v>
       </c>
       <c r="N4" t="n">
-        <v>0.12891885638237</v>
+        <v>0.02049559541046619</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1473358422517776</v>
+        <v>0.3164598643779755</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1692468076944351</v>
+        <v>0.04374341666698456</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1079692468047142</v>
+        <v>0.05089249461889267</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2465139627456665</v>
+        <v>0.05501341074705124</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05030706897377968</v>
+        <v>0.006407453678548336</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03946374729275703</v>
+        <v>0.008797472342848778</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06263065338134766</v>
+        <v>0.005658455193042755</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01266664639115334</v>
+        <v>0.02563099190592766</v>
       </c>
       <c r="W4" t="n">
-        <v>0.00989909004420042</v>
+        <v>0.09546190500259399</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01889556646347046</v>
+        <v>0.01816261000931263</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.05273962393403053</v>
+        <v>0.00984592642635107</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04716868698596954</v>
+        <v>0.006908891722559929</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.03868768736720085</v>
+        <v>0.0001753959804773331</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01190590858459473</v>
+        <v>0.05877187475562096</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.008866128511726856</v>
+        <v>0.03949393332004547</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01443933602422476</v>
+        <v>0.03095006570219994</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02668498829007149</v>
+        <v>0.0243630763143301</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0415329821407795</v>
+        <v>0.03251991048455238</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.002764662262052298</v>
+        <v>0.07825669646263123</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.006174866575747728</v>
+        <v>0.02685415185987949</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0126793198287487</v>
+        <v>0.03138349950313568</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.01742782443761826</v>
+        <v>0.02142658457159996</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.002568501979112625</v>
+        <v>0.01641951687633991</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.02663831971585751</v>
+        <v>0.0108076436445117</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.03060747869312763</v>
+        <v>0.01362252607941628</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.006322981789708138</v>
+        <v>0.008274884894490242</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.06526875495910645</v>
+        <v>0.06310832500457764</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.004982523620128632</v>
+        <v>0.05531787127256393</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.002325227484107018</v>
+        <v>0.02904997952282429</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.02054515294730663</v>
+        <v>0.01442045532166958</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.005785650108009577</v>
+        <v>0.06477390974760056</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.09586790204048157</v>
+        <v>0.04580676555633545</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.03884570300579071</v>
+        <v>0.1899027526378632</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.08268611133098602</v>
+        <v>0.008985351771116257</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.03895451501011848</v>
+        <v>0.09825538843870163</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.04076232388615608</v>
+        <v>0.03787496313452721</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.01614401303231716</v>
+        <v>0.1620037853717804</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.03469879180192947</v>
+        <v>0.05813954770565033</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.145350769162178</v>
+        <v>0.00374911492690444</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.04508433118462563</v>
+        <v>0.09622887521982193</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.04878181219100952</v>
+        <v>0.03664909303188324</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.00659902673214674</v>
+        <v>0.1343672573566437</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.01280541904270649</v>
+        <v>0.05628697574138641</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.02696375176310539</v>
+        <v>0.0305965468287468</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0747741237282753</v>
+        <v>0.06158973276615143</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.1104362681508064</v>
+        <v>0.09236060082912445</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.08024979382753372</v>
+        <v>0.0484713613986969</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.08445706963539124</v>
+        <v>0.0257786437869072</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.00300304964184761</v>
+        <v>0.07523780316114426</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.08148413896560669</v>
+        <v>0.009148471057415009</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.07832831144332886</v>
+        <v>0.04372350499033928</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.01677566021680832</v>
+        <v>0.05491398274898529</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.08176067471504211</v>
+        <v>0.008434228599071503</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.01629788056015968</v>
+        <v>0.0199592150747776</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.05600905418395996</v>
+        <v>0.02091279998421669</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.03093105368316174</v>
+        <v>0.03291649371385574</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.02670843712985516</v>
+        <v>0.04156914353370667</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.04832782596349716</v>
+        <v>0.01857234537601471</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.07686212658882141</v>
+        <v>0.005929638165980577</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.02417396754026413</v>
+        <v>0.1229531988501549</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.00951123982667923</v>
+        <v>0.05412261188030243</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.03310293704271317</v>
+        <v>0.0499013364315033</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01639742217957973</v>
+        <v>0.03217984735965729</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.008479034528136253</v>
+        <v>0.07799941301345825</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.01769592054188251</v>
+        <v>0.02256795018911362</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.06944659352302551</v>
+        <v>0.01606702618300915</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.05947809293866158</v>
+        <v>0.04460226744413376</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.01577563583850861</v>
+        <v>0.00312622869387269</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.009842012077569962</v>
+        <v>0.07384046912193298</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.005699849687516689</v>
+        <v>0.02268625050783157</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.05452050268650055</v>
+        <v>0.02190902270376682</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.05198436602950096</v>
+        <v>0.01823969185352325</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.01039648428559303</v>
+        <v>0.04751326888799667</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.03657712787389755</v>
+        <v>0.02976349554955959</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.02973421476781368</v>
+        <v>0.01323140598833561</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.01818451844155788</v>
+        <v>0.006820807233452797</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.01780689880251884</v>
+        <v>0.07503440976142883</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.06734552979469299</v>
+        <v>0.05070008337497711</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.05873436108231544</v>
+        <v>0.003632334759458899</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.01620047353208065</v>
+        <v>0.070452481508255</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.1154653429985046</v>
+        <v>0.06305778026580811</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.0007371336687356234</v>
+        <v>0.01829168573021889</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.07692562788724899</v>
+        <v>0.07455236464738846</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.1375177055597305</v>
+        <v>0.06667887419462204</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.05858708173036575</v>
+        <v>0.01647542417049408</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.02603520080447197</v>
+        <v>0.002323575783520937</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.01306847296655178</v>
+        <v>0.06798859685659409</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.001799875404685736</v>
+        <v>0.03893138095736504</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.0413123331964016</v>
+        <v>0.02243000641465187</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.01884476467967033</v>
+        <v>0.02462238259613514</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.02401240542531013</v>
+        <v>0.05755628272891045</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.01713257469236851</v>
+        <v>0.02026055380702019</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.03211225569248199</v>
+        <v>0.0191423948854208</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.009687522426247597</v>
+        <v>0.01060917600989342</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.03236332908272743</v>
+        <v>0.03483724966645241</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.04532201588153839</v>
+        <v>0.06928078830242157</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.01138872560113668</v>
+        <v>0.03388498350977898</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.1534839421510696</v>
+        <v>0.04992982745170593</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.1004980131983757</v>
+        <v>0.07388371974229813</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.007026303559541702</v>
+        <v>0.1493811309337616</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.006828853860497475</v>
+        <v>0.08971965312957764</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.03328455984592438</v>
+        <v>0.05403764173388481</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.0367247648537159</v>
+        <v>0.08790948241949081</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.01719386130571365</v>
+        <v>0.02247237600386143</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.03365375846624374</v>
+        <v>0.03702832758426666</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.04272138327360153</v>
+        <v>0.05381559580564499</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.0403139553964138</v>
+        <v>0.01631123200058937</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.01302187517285347</v>
+        <v>0.0346897765994072</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.02870642021298409</v>
+        <v>0.04513349384069443</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.04741905629634857</v>
+        <v>0.01360022462904453</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.04206183552742004</v>
+        <v>0.008501732721924782</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.03170627728104591</v>
+        <v>0.01977120712399483</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.03923691809177399</v>
+        <v>0.01352214440703392</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.03710706904530525</v>
+        <v>0.02472314611077309</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.04271876439452171</v>
+        <v>0.02956489287316799</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.03714044019579887</v>
+        <v>0.03806198388338089</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.02266418933868408</v>
+        <v>0.002105651423335075</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.03650343045592308</v>
+        <v>0.02969998680055141</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.05188706517219543</v>
+        <v>0.007066283840686083</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.02725054323673248</v>
+        <v>0.05648317933082581</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.08867111802101135</v>
+        <v>0.03468555957078934</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.008463861420750618</v>
+        <v>0.01758204773068428</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.03766214102506638</v>
+        <v>0.04591762274503708</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.008612692356109619</v>
+        <v>0.01286301296204329</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.07376990467309952</v>
+        <v>0.01217509526759386</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.003461932763457298</v>
+        <v>0.01820281520485878</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.01606791466474533</v>
+        <v>0.0165275726467371</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.001076696906238794</v>
+        <v>0.04501642286777496</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.05954501777887344</v>
+        <v>0.0006510801613330841</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.002276832237839699</v>
+        <v>0.008153839036822319</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.03434941545128822</v>
+        <v>0.0006382698193192482</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.06545509397983551</v>
+        <v>0.0211804136633873</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.05750709399580956</v>
+        <v>0.01885548606514931</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.003849989268928766</v>
+        <v>0.02931493334472179</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.1007635295391083</v>
+        <v>0.006506605073809624</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.02975769713521004</v>
+        <v>0.05463853478431702</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.01580647379159927</v>
+        <v>0.04426481574773788</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.05122912675142288</v>
+        <v>0.03760486468672752</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.0346786342561245</v>
+        <v>0.01565562933683395</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.04256688803434372</v>
+        <v>0.0003661969676613808</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.01402855291962624</v>
+        <v>0.0542483851313591</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.005608441308140755</v>
+        <v>0.01746315322816372</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.05046133697032928</v>
+        <v>0.007100639864802361</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.03808832541108131</v>
+        <v>0.01952347904443741</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.02088399417698383</v>
+        <v>0.05114959552884102</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.02009734138846397</v>
+        <v>0.04002010822296143</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.03779739886522293</v>
+        <v>0.01183479558676481</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.02284887433052063</v>
+        <v>0.01723412051796913</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.02859002165496349</v>
+        <v>0.003994361963123083</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.01699208468198776</v>
+        <v>0.03273040801286697</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.05567673593759537</v>
+        <v>0.02562770247459412</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.01816202886402607</v>
+        <v>0.06184608861804008</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.01876711659133434</v>
+        <v>0.06181759759783745</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.05254752933979034</v>
+        <v>0.002723913639783859</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.03944319859147072</v>
+        <v>0.004991563037037849</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.06996242702007294</v>
+        <v>0.05446279421448708</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.05480652675032616</v>
+        <v>0.02733656391501427</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.04576639831066132</v>
+        <v>0.04055768623948097</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.1202641949057579</v>
+        <v>0.1680301129817963</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.01131743937730789</v>
+        <v>0.02332807518541813</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.04695602133870125</v>
+        <v>0.02948586083948612</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0719846785068512</v>
+        <v>0.01955010928213596</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.08163705468177795</v>
+        <v>0.07185643166303635</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.01022515539079905</v>
+        <v>0.05665604025125504</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.05264556035399437</v>
+        <v>0.03669416904449463</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.005635693669319153</v>
+        <v>0.006340073421597481</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.003257520496845245</v>
+        <v>0.04664343222975731</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.05415668711066246</v>
+        <v>0.01214398443698883</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.03464778512716293</v>
+        <v>0.02010193467140198</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.1522577553987503</v>
+        <v>0.0162122193723917</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.0104585699737072</v>
+        <v>0.02233392931520939</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.04274965450167656</v>
+        <v>0.02902562171220779</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.009504605084657669</v>
+        <v>0.05129279568791389</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.005170684307813644</v>
+        <v>0.04654107987880707</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.01651343517005444</v>
+        <v>0.01180287078022957</v>
       </c>
     </row>
     <row r="5">
@@ -3280,1140 +3280,1140 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0001347741053905338</v>
+        <v>0.003994851838797331</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0001519372744951397</v>
+        <v>0.01819286122918129</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002112194488290697</v>
+        <v>0.0006012418307363987</v>
       </c>
       <c r="D6" t="n">
-        <v>9.420423884876072e-05</v>
+        <v>0.007292968686670065</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0002952076320070773</v>
+        <v>0.003556092269718647</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005939768743701279</v>
+        <v>0.003834782401099801</v>
       </c>
       <c r="G6" t="n">
-        <v>2.3396762117045e-05</v>
+        <v>0.0004093414463568479</v>
       </c>
       <c r="H6" t="n">
-        <v>7.271762297023088e-05</v>
+        <v>5.972366852802224e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004562153771985322</v>
+        <v>0.0004203728458378464</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0002447352162562311</v>
+        <v>0.003398416563868523</v>
       </c>
       <c r="K6" t="n">
-        <v>7.066107355058193e-05</v>
+        <v>0.01148004177957773</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004488431150093675</v>
+        <v>0.001488370588049293</v>
       </c>
       <c r="M6" t="n">
-        <v>9.335472714155912e-05</v>
+        <v>0.008450863882899284</v>
       </c>
       <c r="N6" t="n">
-        <v>0.000144718709634617</v>
+        <v>0.001375711988657713</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0002395677147433162</v>
+        <v>0.006455439608544111</v>
       </c>
       <c r="P6" t="n">
-        <v>7.521533552790061e-05</v>
+        <v>0.003110220190137625</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.163672954542562e-05</v>
+        <v>0.005585442297160625</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0002655754797160625</v>
+        <v>0.0001285567122977227</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0001171926487586461</v>
+        <v>0.0004567026044242084</v>
       </c>
       <c r="T6" t="n">
-        <v>1.057117970049148e-05</v>
+        <v>0.001634257845580578</v>
       </c>
       <c r="U6" t="n">
-        <v>5.379630601964891e-05</v>
+        <v>0.0003003871825058013</v>
       </c>
       <c r="V6" t="n">
-        <v>5.384008909459226e-05</v>
+        <v>0.002502817194908857</v>
       </c>
       <c r="W6" t="n">
-        <v>4.96415414090734e-05</v>
+        <v>0.001997853629291058</v>
       </c>
       <c r="X6" t="n">
-        <v>4.235408050590195e-05</v>
+        <v>0.0002289256663061678</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0001540695520816371</v>
+        <v>0.001120591536164284</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.635593647137284e-05</v>
+        <v>0.001828900538384914</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.421663339191582e-06</v>
+        <v>0.001851186505518854</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.575222995597869e-05</v>
+        <v>0.0003768234746530652</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0001992473989957944</v>
+        <v>0.003360737580806017</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0001009875413728878</v>
+        <v>0.0005354033201001585</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0002449008461553603</v>
+        <v>0.001024602097459137</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.183609704952687e-05</v>
+        <v>0.0009008148917928338</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0001086615375243127</v>
+        <v>0.001067703706212342</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0001476113102398813</v>
+        <v>0.002739110495895147</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.748930223286152e-05</v>
+        <v>3.430451033636928e-05</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.14245356398169e-06</v>
+        <v>0.00112564314622432</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.394759576418437e-06</v>
+        <v>0.001982437446713448</v>
       </c>
       <c r="AL6" t="n">
-        <v>6.23024461674504e-05</v>
+        <v>0.002921144245192409</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.60129049315583e-05</v>
+        <v>0.0005578388227149844</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.429001324344426e-05</v>
+        <v>0.0009377609239891171</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.929711652337573e-05</v>
+        <v>0.0004009121912531555</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.0001713417004793882</v>
+        <v>0.002659186022356153</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.742310243775137e-05</v>
+        <v>6.381758430507034e-05</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0001154332931037061</v>
+        <v>0.0007614252390339971</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.092488234164193e-05</v>
+        <v>0.001060707028955221</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.664280277211219e-05</v>
+        <v>0.002649980364367366</v>
       </c>
       <c r="AU6" t="n">
-        <v>5.736617822549306e-06</v>
+        <v>0.01595419086515903</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.0002741336647886783</v>
+        <v>0.0002047077286988497</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0001879601622931659</v>
+        <v>0.0009726923308335245</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.0003778092504944652</v>
+        <v>0.008748350664973259</v>
       </c>
       <c r="AY6" t="n">
-        <v>9.048926585819572e-05</v>
+        <v>0.0002634070697240531</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.0003183971566613764</v>
+        <v>0.0006151894340291619</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.0002525546588003635</v>
+        <v>0.003000258933752775</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.0002272395795444027</v>
+        <v>0.0009786848677322268</v>
       </c>
       <c r="BC6" t="n">
-        <v>9.286724525736645e-05</v>
+        <v>0.002487927675247192</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.0001753807155182585</v>
+        <v>0.001322308904491365</v>
       </c>
       <c r="BE6" t="n">
-        <v>2.181745185225736e-05</v>
+        <v>0.002442311029881239</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.0001212775969179347</v>
+        <v>4.430933040566742e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.0001455705350963399</v>
+        <v>0.003869201755151153</v>
       </c>
       <c r="BH6" t="n">
-        <v>6.933939584996551e-05</v>
+        <v>0.003020304953679442</v>
       </c>
       <c r="BI6" t="n">
-        <v>8.604145841673017e-05</v>
+        <v>0.001963168615475297</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.0002737182367127389</v>
+        <v>0.00393024692311883</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.000113968133518938</v>
+        <v>0.0008190699154511094</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.0001116477069444954</v>
+        <v>0.002810374135151505</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.0001959773508133367</v>
+        <v>0.003012450411915779</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.0002991554501932114</v>
+        <v>0.0008186419145204127</v>
       </c>
       <c r="BO6" t="n">
-        <v>7.381762770819478e-06</v>
+        <v>0.005279534962028265</v>
       </c>
       <c r="BP6" t="n">
-        <v>7.675582310184836e-05</v>
+        <v>0.004191556945443153</v>
       </c>
       <c r="BQ6" t="n">
-        <v>9.712549399409909e-06</v>
+        <v>0.000216474654735066</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.000119048374472186</v>
+        <v>0.000292143173282966</v>
       </c>
       <c r="BS6" t="n">
-        <v>3.236289558117278e-06</v>
+        <v>0.00135128281544894</v>
       </c>
       <c r="BT6" t="n">
-        <v>3.936886059818789e-05</v>
+        <v>0.0005007665604352951</v>
       </c>
       <c r="BU6" t="n">
-        <v>5.708417666028254e-05</v>
+        <v>0.002276911865919828</v>
       </c>
       <c r="BV6" t="n">
-        <v>9.539695020066574e-05</v>
+        <v>0.007453934755176306</v>
       </c>
       <c r="BW6" t="n">
-        <v>4.928976341034286e-05</v>
+        <v>0.0007432575221173465</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.0001533733593532816</v>
+        <v>0.0004993787151761353</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.0003899023868143559</v>
+        <v>0.001638825284317136</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.0001396440493408591</v>
+        <v>0.003960545640438795</v>
       </c>
       <c r="CA6" t="n">
-        <v>2.244943243567832e-05</v>
+        <v>0.0007476191967725754</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.0001954024919541553</v>
+        <v>0.0005650668172165751</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.000125416656374</v>
+        <v>0.001836645533330739</v>
       </c>
       <c r="CD6" t="n">
-        <v>7.702301809331402e-05</v>
+        <v>0.001758372993208468</v>
       </c>
       <c r="CE6" t="n">
-        <v>8.11143618193455e-05</v>
+        <v>0.003274025861173868</v>
       </c>
       <c r="CF6" t="n">
-        <v>3.664155519800261e-05</v>
+        <v>0.001028854865580797</v>
       </c>
       <c r="CG6" t="n">
-        <v>3.789095717365853e-05</v>
+        <v>0.002096317941322923</v>
       </c>
       <c r="CH6" t="n">
-        <v>7.52363630454056e-05</v>
+        <v>0.001303198980167508</v>
       </c>
       <c r="CI6" t="n">
-        <v>6.331175973173231e-05</v>
+        <v>0.0008325465023517609</v>
       </c>
       <c r="CJ6" t="n">
-        <v>4.748942228616215e-05</v>
+        <v>0.001062045572325587</v>
       </c>
       <c r="CK6" t="n">
-        <v>2.456430047459435e-05</v>
+        <v>8.366972906515002e-06</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.615255678188987e-05</v>
+        <v>0.0007234379881992936</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.0001175742945633829</v>
+        <v>0.001511317561380565</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.0001023201402858831</v>
+        <v>0.001956568099558353</v>
       </c>
       <c r="CO6" t="n">
-        <v>4.479831659409683e-06</v>
+        <v>0.001759852049872279</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.0001879560295492411</v>
+        <v>0.004372477065771818</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.0002600254083517939</v>
+        <v>0.004718232434242964</v>
       </c>
       <c r="CR6" t="n">
-        <v>7.080042996676639e-05</v>
+        <v>0.002232618862763047</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.0001214793883264065</v>
+        <v>0.00044225636520423</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.0001391735568176955</v>
+        <v>0.001360995694994926</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.0001205136140924878</v>
+        <v>0.000536325853317976</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.0001056955370586365</v>
+        <v>0.001529686967842281</v>
       </c>
       <c r="CW6" t="n">
-        <v>6.588300311705098e-05</v>
+        <v>0.00265420088544488</v>
       </c>
       <c r="CX6" t="n">
-        <v>4.895847814623266e-05</v>
+        <v>0.001047768979333341</v>
       </c>
       <c r="CY6" t="n">
-        <v>2.289071926497854e-05</v>
+        <v>0.002913853386417031</v>
       </c>
       <c r="CZ6" t="n">
-        <v>9.47844164329581e-05</v>
+        <v>0.001241574878804386</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.0001065239775925875</v>
+        <v>0.001308401115238667</v>
       </c>
       <c r="DB6" t="n">
-        <v>3.753077908186242e-05</v>
+        <v>0.001277683069929481</v>
       </c>
       <c r="DC6" t="n">
-        <v>2.551557008700911e-05</v>
+        <v>0.0007237617974169552</v>
       </c>
       <c r="DD6" t="n">
-        <v>7.205012661870569e-05</v>
+        <v>0.0003937538713216782</v>
       </c>
       <c r="DE6" t="n">
-        <v>5.004557897336781e-05</v>
+        <v>0.003432224970310926</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.0002461232361383736</v>
+        <v>0.004347852431237698</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.0003889416402671486</v>
+        <v>0.0005547275068238378</v>
       </c>
       <c r="DH6" t="n">
-        <v>3.872463639709167e-05</v>
+        <v>0.004587628412991762</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.0002078981779050082</v>
+        <v>0.003023664001375437</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.0002279015316162258</v>
+        <v>0.001440020860172808</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.0002261169138364494</v>
+        <v>0.004085269290953875</v>
       </c>
       <c r="DL6" t="n">
-        <v>9.295438940171152e-05</v>
+        <v>0.001049840007908642</v>
       </c>
       <c r="DM6" t="n">
-        <v>3.172323704347946e-05</v>
+        <v>0.0003818283730652183</v>
       </c>
       <c r="DN6" t="n">
-        <v>5.793252057628706e-05</v>
+        <v>0.004084723070263863</v>
       </c>
       <c r="DO6" t="n">
-        <v>3.063516851398163e-05</v>
+        <v>0.002061325591057539</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.0001661803835304454</v>
+        <v>0.001294835936278105</v>
       </c>
       <c r="DQ6" t="n">
-        <v>2.272666461067274e-05</v>
+        <v>0.00264662760309875</v>
       </c>
       <c r="DR6" t="n">
-        <v>7.514876051573083e-05</v>
+        <v>0.0005481583648361266</v>
       </c>
       <c r="DS6" t="n">
-        <v>4.782685209647752e-05</v>
+        <v>0.003027941798791289</v>
       </c>
       <c r="DT6" t="n">
-        <v>4.279323093214771e-06</v>
+        <v>0.0004526700358837843</v>
       </c>
       <c r="DU6" t="n">
-        <v>3.202132211299613e-05</v>
+        <v>0.0006699887453578413</v>
       </c>
       <c r="DV6" t="n">
-        <v>1.660474663367495e-05</v>
+        <v>0.00141879846341908</v>
       </c>
       <c r="DW6" t="n">
-        <v>5.606625927612185e-05</v>
+        <v>0.001019978197291493</v>
       </c>
       <c r="DX6" t="n">
-        <v>1.981580135179684e-05</v>
+        <v>0.003637210931628942</v>
       </c>
       <c r="DY6" t="n">
-        <v>6.870216111565242e-07</v>
+        <v>0.003211849136278033</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.474312375648879e-05</v>
+        <v>0.001568452455103397</v>
       </c>
       <c r="EA6" t="n">
-        <v>9.70389082795009e-05</v>
+        <v>0.002779983449727297</v>
       </c>
       <c r="EB6" t="n">
-        <v>7.594222552143037e-05</v>
+        <v>6.428688357118517e-05</v>
       </c>
       <c r="EC6" t="n">
-        <v>7.495208410546184e-05</v>
+        <v>0.0008245600038208067</v>
       </c>
       <c r="ED6" t="n">
-        <v>3.198103149770759e-05</v>
+        <v>0.001948211574926972</v>
       </c>
       <c r="EE6" t="n">
-        <v>4.162789628026076e-05</v>
+        <v>0.0004436905728653073</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.0001060005815816112</v>
+        <v>2.735015004873276e-05</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.0001396591105731204</v>
+        <v>0.0004765882040373981</v>
       </c>
       <c r="EH6" t="n">
-        <v>7.062048825901002e-05</v>
+        <v>0.0001493005402153358</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.917722329380922e-05</v>
+        <v>0.002031712094321847</v>
       </c>
       <c r="EJ6" t="n">
-        <v>6.976724398555234e-05</v>
+        <v>0.0003226989647373557</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.0002159319556085393</v>
+        <v>0.000240651163039729</v>
       </c>
       <c r="EL6" t="n">
-        <v>8.562949915358331e-06</v>
+        <v>0.001107943709939718</v>
       </c>
       <c r="EM6" t="n">
-        <v>5.812001109006815e-05</v>
+        <v>6.351883348543197e-05</v>
       </c>
       <c r="EN6" t="n">
-        <v>4.745562182506546e-05</v>
+        <v>0.0006905999034643173</v>
       </c>
       <c r="EO6" t="n">
-        <v>8.668645023135468e-06</v>
+        <v>0.001717671984806657</v>
       </c>
       <c r="EP6" t="n">
-        <v>7.360299059655517e-05</v>
+        <v>0.002178231719881296</v>
       </c>
       <c r="EQ6" t="n">
-        <v>6.14417003816925e-05</v>
+        <v>0.001028885482810438</v>
       </c>
       <c r="ER6" t="n">
-        <v>5.791441071778536e-05</v>
+        <v>0.001689042546786368</v>
       </c>
       <c r="ES6" t="n">
-        <v>8.126535976771265e-05</v>
+        <v>0.00234965281561017</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.0001297240814892575</v>
+        <v>0.007123133167624474</v>
       </c>
       <c r="EU6" t="n">
-        <v>8.547843754058704e-05</v>
+        <v>0.001073271268978715</v>
       </c>
       <c r="EV6" t="n">
-        <v>1.549270018585958e-05</v>
+        <v>0.001237104530446231</v>
       </c>
       <c r="EW6" t="n">
-        <v>2.797222987283021e-05</v>
+        <v>0.0005720767076127231</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.0001149220624938607</v>
+        <v>0.001863361801952124</v>
       </c>
       <c r="EY6" t="n">
-        <v>6.580357148777694e-05</v>
+        <v>0.002045054454356432</v>
       </c>
       <c r="EZ6" t="n">
-        <v>5.012304245610721e-05</v>
+        <v>0.0003442367014940828</v>
       </c>
       <c r="FA6" t="n">
-        <v>4.908029222860932e-05</v>
+        <v>0.002130885142832994</v>
       </c>
       <c r="FB6" t="n">
-        <v>7.625878060935065e-05</v>
+        <v>0.001250248984433711</v>
       </c>
       <c r="FC6" t="n">
-        <v>9.842897998169065e-05</v>
+        <v>0.001191724557429552</v>
       </c>
       <c r="FD6" t="n">
-        <v>2.09220961551182e-05</v>
+        <v>0.001250197645276785</v>
       </c>
       <c r="FE6" t="n">
-        <v>3.348454265506007e-05</v>
+        <v>0.0001222581195179373</v>
       </c>
       <c r="FF6" t="n">
-        <v>5.143055750522763e-05</v>
+        <v>0.0007840557955205441</v>
       </c>
       <c r="FG6" t="n">
-        <v>6.993452552706003e-05</v>
+        <v>0.001483902102336287</v>
       </c>
       <c r="FH6" t="n">
-        <v>3.589021071093157e-05</v>
+        <v>0.003434653393924236</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.0001185493892990053</v>
+        <v>0.0005904398276470602</v>
       </c>
       <c r="FJ6" t="n">
-        <v>3.891186133841984e-05</v>
+        <v>0.0001334883854724467</v>
       </c>
       <c r="FK6" t="n">
-        <v>8.034326310735196e-05</v>
+        <v>0.0013635033974424</v>
       </c>
       <c r="FL6" t="n">
-        <v>3.512354305712506e-05</v>
+        <v>0.001532645081169903</v>
       </c>
       <c r="FM6" t="n">
-        <v>7.159596862038597e-05</v>
+        <v>0.001376996166072786</v>
       </c>
       <c r="FN6" t="n">
-        <v>7.109143552952446e-06</v>
+        <v>0.0008219692972488701</v>
       </c>
       <c r="FO6" t="n">
-        <v>5.980364221613854e-07</v>
+        <v>2.587167546153069e-05</v>
       </c>
       <c r="FP6" t="n">
-        <v>5.405979754868895e-05</v>
+        <v>0.001022823271341622</v>
       </c>
       <c r="FQ6" t="n">
-        <v>8.626118506072089e-05</v>
+        <v>0.0004328505892772228</v>
       </c>
       <c r="FR6" t="n">
-        <v>1.351804530713707e-05</v>
+        <v>0.0004916240577585995</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.0003868165367748588</v>
+        <v>0.0007164797279983759</v>
       </c>
       <c r="FT6" t="n">
-        <v>1.870532651082613e-05</v>
+        <v>0.004191576037555933</v>
       </c>
       <c r="FU6" t="n">
-        <v>8.681676990818232e-05</v>
+        <v>0.0004915198078379035</v>
       </c>
       <c r="FV6" t="n">
-        <v>9.430287173017859e-05</v>
+        <v>0.00038798653986305</v>
       </c>
       <c r="FW6" t="n">
-        <v>2.264923750772141e-05</v>
+        <v>0.002223375719040632</v>
       </c>
       <c r="FX6" t="n">
-        <v>9.924509504344314e-05</v>
+        <v>4.092309973202646e-05</v>
       </c>
       <c r="FY6" t="n">
-        <v>2.803958886943292e-05</v>
+        <v>0.0001446190290153027</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.0002521204296499491</v>
+        <v>0.003990207333117723</v>
       </c>
       <c r="GA6" t="n">
-        <v>7.383665797533467e-05</v>
+        <v>0.001761177089065313</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.0001473253360018134</v>
+        <v>0.003179411171004176</v>
       </c>
       <c r="GC6" t="n">
-        <v>2.256597144878469e-05</v>
+        <v>0.001099288580007851</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.0001706517359707505</v>
+        <v>0.002541806548833847</v>
       </c>
       <c r="GE6" t="n">
-        <v>7.944358367240056e-05</v>
+        <v>0.004548722878098488</v>
       </c>
       <c r="GF6" t="n">
-        <v>8.768877887632698e-05</v>
+        <v>0.001093708211556077</v>
       </c>
       <c r="GG6" t="n">
-        <v>7.647128950338811e-05</v>
+        <v>0.0009534492273814976</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0002495722728781402</v>
+        <v>0.0009377180831506848</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0001561071258038282</v>
+        <v>0.008061843924224377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003990709956269711</v>
+        <v>0.0003756684018298984</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001482685620430857</v>
+        <v>0.003711318830028176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000455636705737561</v>
+        <v>0.002276331651955843</v>
       </c>
       <c r="F7" t="n">
-        <v>4.863106732955202e-05</v>
+        <v>0.001834899885579944</v>
       </c>
       <c r="G7" t="n">
-        <v>7.677537359995767e-05</v>
+        <v>0.0006329680909402668</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002656180295161903</v>
+        <v>0.0006689178990200162</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0006463339086622</v>
+        <v>0.0001996130158659071</v>
       </c>
       <c r="J7" t="n">
-        <v>5.736916500609368e-05</v>
+        <v>0.001422829460352659</v>
       </c>
       <c r="K7" t="n">
-        <v>2.402496647846419e-06</v>
+        <v>0.005216529592871666</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004953029565513134</v>
+        <v>0.000535021536052227</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0001615040528122336</v>
+        <v>0.0038557352963835</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0002827792195603251</v>
+        <v>0.003952734172344208</v>
       </c>
       <c r="O7" t="n">
-        <v>4.144983540754765e-05</v>
+        <v>0.003007797989994287</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0002263856877107173</v>
+        <v>0.0006015815888531506</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0003150076081510633</v>
+        <v>0.0004655190277844667</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0005622579483315349</v>
+        <v>0.000500905211083591</v>
       </c>
       <c r="S7" t="n">
-        <v>3.075674612773582e-05</v>
+        <v>0.0002906457812059671</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0001773724216036499</v>
+        <v>0.001412884332239628</v>
       </c>
       <c r="U7" t="n">
-        <v>9.634954039938748e-05</v>
+        <v>8.328106923727319e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0001735208206810057</v>
+        <v>0.0009817139944061637</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0001799354358809069</v>
+        <v>0.0007755396654829383</v>
       </c>
       <c r="X7" t="n">
-        <v>2.359692007303238e-05</v>
+        <v>0.00101866852492094</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.153363498626277e-05</v>
+        <v>0.0008782888180576265</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.988654498243704e-05</v>
+        <v>0.0004138878430239856</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.733407720574178e-05</v>
+        <v>0.0005250014364719391</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.888528539799154e-05</v>
+        <v>0.0005769525305368006</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.286083276383579e-05</v>
+        <v>0.001067592878825963</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.783375283703208e-05</v>
+        <v>0.0003494922711979598</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.000170730403624475</v>
+        <v>1.279973184864502e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0001273693196708336</v>
+        <v>0.0008250662358477712</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.936042725807056e-05</v>
+        <v>0.000110145250800997</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0001115212653530762</v>
+        <v>0.0001725435722619295</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0002269128017360345</v>
+        <v>0.0002597925486043096</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.962943007238209e-05</v>
+        <v>0.0002018510858761147</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.781705891015008e-05</v>
+        <v>0.0005838126526214182</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0002375570766162127</v>
+        <v>0.0009880836587399244</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0001075643449439667</v>
+        <v>1.853518551797606e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.272516136756167e-05</v>
+        <v>0.0003428119816817343</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.248749635531567e-05</v>
+        <v>0.0009170888806693256</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0002428982115816325</v>
+        <v>0.001087456475943327</v>
       </c>
       <c r="AQ7" t="n">
-        <v>8.515760782756843e-06</v>
+        <v>0.0001191815681522712</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.177287205995526e-05</v>
+        <v>0.000252202880801633</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.779715396172833e-05</v>
+        <v>0.000538524123840034</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0001771762617863715</v>
+        <v>0.0007881073979660869</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.000306745758280158</v>
+        <v>0.005942025221884251</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.0004731960943900049</v>
+        <v>3.084031777689233e-05</v>
       </c>
       <c r="AW7" t="n">
-        <v>5.049148967373185e-06</v>
+        <v>0.0007030183915048838</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0002570896467659622</v>
+        <v>0.0006166121456772089</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.0003056365239899606</v>
+        <v>1.390255056321621e-05</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.730529377004132e-05</v>
+        <v>0.0003729019954334944</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.000307484733639285</v>
+        <v>8.067232556641102e-06</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0003520862956065685</v>
+        <v>0.0001936373591888696</v>
       </c>
       <c r="BC7" t="n">
-        <v>6.689169822493568e-06</v>
+        <v>0.00037020054878667</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0001279123971471563</v>
+        <v>0.001233935821801424</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.0001173089258372784</v>
+        <v>0.001154444762505591</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.33045284403488e-05</v>
+        <v>0.0007404289208352566</v>
       </c>
       <c r="BG7" t="n">
-        <v>4.796257417183369e-05</v>
+        <v>0.002740422263741493</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0001000226548057981</v>
+        <v>0.001503288513049483</v>
       </c>
       <c r="BI7" t="n">
-        <v>9.541269537294284e-05</v>
+        <v>0.0009462847956456244</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0001181247862405144</v>
+        <v>0.00039734470192343</v>
       </c>
       <c r="BK7" t="n">
-        <v>3.665977783384733e-05</v>
+        <v>0.0001985975104616955</v>
       </c>
       <c r="BL7" t="n">
-        <v>1.995600177906454e-05</v>
+        <v>0.001048257574439049</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.34053025249159e-05</v>
+        <v>0.001257267664186656</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.000219232402741909</v>
+        <v>0.0002812340972013772</v>
       </c>
       <c r="BO7" t="n">
-        <v>9.234341268893331e-05</v>
+        <v>0.0004315346304792911</v>
       </c>
       <c r="BP7" t="n">
-        <v>5.110051642986946e-05</v>
+        <v>0.001068808720447123</v>
       </c>
       <c r="BQ7" t="n">
-        <v>7.558842480648309e-05</v>
+        <v>0.0008990253554657102</v>
       </c>
       <c r="BR7" t="n">
-        <v>9.170288103632629e-05</v>
+        <v>0.0003868455823976547</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0001913262676680461</v>
+        <v>0.0001192513227579184</v>
       </c>
       <c r="BT7" t="n">
-        <v>9.899405995383859e-05</v>
+        <v>0.0006861001020297408</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.0001012331485981122</v>
+        <v>0.0006177545874379575</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0001242315338458866</v>
+        <v>0.003079917514696717</v>
       </c>
       <c r="BW7" t="n">
-        <v>3.427423507673666e-05</v>
+        <v>0.0003987406380474567</v>
       </c>
       <c r="BX7" t="n">
-        <v>4.253788210917264e-05</v>
+        <v>0.0006701578968204558</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.000271905679255724</v>
+        <v>0.0004898220649920404</v>
       </c>
       <c r="BZ7" t="n">
-        <v>5.114721716381609e-06</v>
+        <v>0.001393788843415678</v>
       </c>
       <c r="CA7" t="n">
-        <v>3.862760422634892e-05</v>
+        <v>0.0001807353255571797</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.0001605379802640527</v>
+        <v>0.0004467879189178348</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0003134783182758838</v>
+        <v>0.0005271997069939971</v>
       </c>
       <c r="CD7" t="n">
-        <v>2.869863783416804e-05</v>
+        <v>0.0005485762376338243</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0001103731483453885</v>
+        <v>0.001324676792137325</v>
       </c>
       <c r="CF7" t="n">
-        <v>8.59294887050055e-05</v>
+        <v>0.0004514587053563446</v>
       </c>
       <c r="CG7" t="n">
-        <v>4.872873432759661e-06</v>
+        <v>0.0003496108110994101</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0001175753641291521</v>
+        <v>9.185172530123964e-05</v>
       </c>
       <c r="CI7" t="n">
-        <v>5.637487265630625e-05</v>
+        <v>0.0005117428372614086</v>
       </c>
       <c r="CJ7" t="n">
-        <v>3.439849024289288e-06</v>
+        <v>0.0002370231522945687</v>
       </c>
       <c r="CK7" t="n">
-        <v>6.122379272710532e-05</v>
+        <v>3.678747452795506e-05</v>
       </c>
       <c r="CL7" t="n">
-        <v>8.738438191358e-05</v>
+        <v>0.0002574233512859792</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0001112563040805981</v>
+        <v>0.0008503147400915623</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0003702584654092789</v>
+        <v>0.0006117678130976856</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.0001135964266723022</v>
+        <v>0.0004005849186796695</v>
       </c>
       <c r="CP7" t="n">
-        <v>8.991734648589045e-05</v>
+        <v>0.001198947546072304</v>
       </c>
       <c r="CQ7" t="n">
-        <v>6.987178494455293e-05</v>
+        <v>0.00111850060056895</v>
       </c>
       <c r="CR7" t="n">
-        <v>7.258840196300298e-05</v>
+        <v>0.0007475421298295259</v>
       </c>
       <c r="CS7" t="n">
-        <v>3.902659955201671e-05</v>
+        <v>0.0007796483696438372</v>
       </c>
       <c r="CT7" t="n">
-        <v>9.773820056580007e-05</v>
+        <v>0.00117066886741668</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0001622025156393647</v>
+        <v>1.37077659019269e-05</v>
       </c>
       <c r="CV7" t="n">
-        <v>2.418236181256361e-05</v>
+        <v>0.000475436681881547</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.0001117793435696512</v>
+        <v>0.001033902983181179</v>
       </c>
       <c r="CX7" t="n">
-        <v>6.885546463308856e-05</v>
+        <v>0.000504933821503073</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.654038715059869e-05</v>
+        <v>0.0007081691292114556</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0001463440858060494</v>
+        <v>0.0001260467543033883</v>
       </c>
       <c r="DA7" t="n">
-        <v>5.383389725466259e-05</v>
+        <v>0.0005826203268952668</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.36397154367296e-05</v>
+        <v>0.0002589020878076553</v>
       </c>
       <c r="DC7" t="n">
-        <v>5.806599074276164e-05</v>
+        <v>0.0001186560693895444</v>
       </c>
       <c r="DD7" t="n">
-        <v>9.462840534979478e-05</v>
+        <v>0.0001551010500406846</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0001493120653321967</v>
+        <v>0.0003175401361659169</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.0002132820663973689</v>
+        <v>0.001351261511445045</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0002707115490920842</v>
+        <v>0.0002145134203601629</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.0001095880943466909</v>
+        <v>0.001354993786662817</v>
       </c>
       <c r="DI7" t="n">
-        <v>3.597031172830611e-05</v>
+        <v>0.0002971925132442266</v>
       </c>
       <c r="DJ7" t="n">
-        <v>5.636768401018344e-05</v>
+        <v>9.489802323514596e-05</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0002204747288487852</v>
+        <v>0.0004382895713206381</v>
       </c>
       <c r="DL7" t="n">
-        <v>9.27602595766075e-05</v>
+        <v>6.133341230452061e-07</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0001809484383556992</v>
+        <v>0.0003392446378711611</v>
       </c>
       <c r="DN7" t="n">
-        <v>6.085097629693337e-05</v>
+        <v>0.0008323457441292703</v>
       </c>
       <c r="DO7" t="n">
-        <v>7.798244769219309e-05</v>
+        <v>0.0003036312700714916</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0001219838595716283</v>
+        <v>0.0004603140987455845</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0001162611079053022</v>
+        <v>0.0004635694203898311</v>
       </c>
       <c r="DR7" t="n">
-        <v>2.464838871674147e-05</v>
+        <v>0.0002485021250322461</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0001856395392678678</v>
+        <v>0.0009116809233091772</v>
       </c>
       <c r="DT7" t="n">
-        <v>5.759747364209034e-05</v>
+        <v>0.0001702867448329926</v>
       </c>
       <c r="DU7" t="n">
-        <v>7.596928298880812e-06</v>
+        <v>0.0001034047454595566</v>
       </c>
       <c r="DV7" t="n">
-        <v>3.324380668345839e-05</v>
+        <v>0.0002994703536387533</v>
       </c>
       <c r="DW7" t="n">
-        <v>3.411540819797665e-05</v>
+        <v>0.0005796589539386332</v>
       </c>
       <c r="DX7" t="n">
-        <v>1.009864354273304e-05</v>
+        <v>0.0001789622765500098</v>
       </c>
       <c r="DY7" t="n">
-        <v>8.089363109320402e-05</v>
+        <v>0.001194718177430332</v>
       </c>
       <c r="DZ7" t="n">
-        <v>1.692543264653068e-05</v>
+        <v>0.0003529999230522662</v>
       </c>
       <c r="EA7" t="n">
-        <v>5.031629916629754e-05</v>
+        <v>0.0008401756640523672</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0001155753052444197</v>
+        <v>0.0004081940569449216</v>
       </c>
       <c r="EC7" t="n">
-        <v>6.424254388548434e-05</v>
+        <v>0.0001128377334680408</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0001596298534423113</v>
+        <v>0.0001237978576682508</v>
       </c>
       <c r="EE7" t="n">
-        <v>3.8382950151572e-05</v>
+        <v>0.000111508990812581</v>
       </c>
       <c r="EF7" t="n">
-        <v>6.522877083625644e-05</v>
+        <v>9.298362419940531e-05</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.000266814575297758</v>
+        <v>0.0006072198157198727</v>
       </c>
       <c r="EH7" t="n">
-        <v>3.632649168139324e-05</v>
+        <v>2.419393604213838e-05</v>
       </c>
       <c r="EI7" t="n">
-        <v>2.713471076276619e-05</v>
+        <v>0.0002387913700658828</v>
       </c>
       <c r="EJ7" t="n">
-        <v>5.235514981904998e-05</v>
+        <v>0.0003429311909712851</v>
       </c>
       <c r="EK7" t="n">
-        <v>6.890816439408809e-05</v>
+        <v>0.0004334765835665166</v>
       </c>
       <c r="EL7" t="n">
-        <v>8.058810635702685e-05</v>
+        <v>0.000390824192436412</v>
       </c>
       <c r="EM7" t="n">
-        <v>7.370254752459005e-05</v>
+        <v>0.000202782655833289</v>
       </c>
       <c r="EN7" t="n">
-        <v>6.150550325401127e-05</v>
+        <v>4.094424366485327e-05</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.000115644586912822</v>
+        <v>0.000346009386703372</v>
       </c>
       <c r="EP7" t="n">
-        <v>7.553931936854497e-06</v>
+        <v>0.0008852767059579492</v>
       </c>
       <c r="EQ7" t="n">
-        <v>1.799799974833149e-05</v>
+        <v>4.110406007384881e-05</v>
       </c>
       <c r="ER7" t="n">
-        <v>3.340805051266216e-05</v>
+        <v>0.0006087093497626483</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0001268850464839488</v>
+        <v>0.0005998015403747559</v>
       </c>
       <c r="ET7" t="n">
-        <v>5.818552745040506e-05</v>
+        <v>0.00214819423854351</v>
       </c>
       <c r="EU7" t="n">
-        <v>2.77498402283527e-05</v>
+        <v>0.0007700492278672755</v>
       </c>
       <c r="EV7" t="n">
-        <v>9.996195149142295e-05</v>
+        <v>0.0008634658879600465</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.0001081048176274635</v>
+        <v>2.261245754198171e-05</v>
       </c>
       <c r="EX7" t="n">
-        <v>9.38115863391431e-06</v>
+        <v>0.000371521950000897</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.0001219543119077571</v>
+        <v>0.001108813914470375</v>
       </c>
       <c r="EZ7" t="n">
-        <v>7.662505959160626e-05</v>
+        <v>0.0001984657137654722</v>
       </c>
       <c r="FA7" t="n">
-        <v>7.853132046875544e-06</v>
+        <v>0.0005276232841424644</v>
       </c>
       <c r="FB7" t="n">
-        <v>8.935709774959832e-05</v>
+        <v>4.418479511514306e-05</v>
       </c>
       <c r="FC7" t="n">
-        <v>4.455270391190425e-05</v>
+        <v>0.0006858893902972341</v>
       </c>
       <c r="FD7" t="n">
-        <v>2.539582055760548e-05</v>
+        <v>0.0003658593050204217</v>
       </c>
       <c r="FE7" t="n">
-        <v>5.796569894300774e-05</v>
+        <v>0.0001610265608178452</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0001268184423679486</v>
+        <v>0.0003169980191159993</v>
       </c>
       <c r="FG7" t="n">
-        <v>6.473717076005414e-05</v>
+        <v>0.0002602326567284763</v>
       </c>
       <c r="FH7" t="n">
-        <v>6.821384886279702e-06</v>
+        <v>0.000579340907279402</v>
       </c>
       <c r="FI7" t="n">
-        <v>9.025036706589162e-05</v>
+        <v>0.0002883607521653175</v>
       </c>
       <c r="FJ7" t="n">
-        <v>3.632145308074541e-06</v>
+        <v>0.0005781006766483188</v>
       </c>
       <c r="FK7" t="n">
-        <v>9.688204590929672e-05</v>
+        <v>8.487563172820956e-05</v>
       </c>
       <c r="FL7" t="n">
-        <v>6.868976925034076e-07</v>
+        <v>0.0001964783587027341</v>
       </c>
       <c r="FM7" t="n">
-        <v>7.893670954217669e-06</v>
+        <v>0.0001372632978018373</v>
       </c>
       <c r="FN7" t="n">
-        <v>1.186939334729686e-05</v>
+        <v>0.000379694189177826</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.0001204654108732939</v>
+        <v>0.0005569123895838857</v>
       </c>
       <c r="FP7" t="n">
-        <v>1.010961204883642e-05</v>
+        <v>8.292662096209824e-05</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.000105592880572658</v>
+        <v>0.0001589786406839266</v>
       </c>
       <c r="FR7" t="n">
-        <v>1.297047856496647e-05</v>
+        <v>3.347869642311707e-05</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.0001017433023662306</v>
+        <v>0.001000590622425079</v>
       </c>
       <c r="FT7" t="n">
-        <v>8.936188532970846e-05</v>
+        <v>0.001177767524495721</v>
       </c>
       <c r="FU7" t="n">
-        <v>6.125352228991687e-05</v>
+        <v>9.37831136980094e-05</v>
       </c>
       <c r="FV7" t="n">
-        <v>3.920583912986331e-05</v>
+        <v>0.0003755002981051803</v>
       </c>
       <c r="FW7" t="n">
-        <v>9.04154876479879e-05</v>
+        <v>6.679532816633582e-05</v>
       </c>
       <c r="FX7" t="n">
-        <v>2.276356462971307e-05</v>
+        <v>0.0004812540719285607</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0001032496948027983</v>
+        <v>0.001058962661772966</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0001299883151659742</v>
+        <v>0.0004692060174420476</v>
       </c>
       <c r="GA7" t="n">
-        <v>9.060616139322519e-05</v>
+        <v>0.0002251339028589427</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0001526654668850824</v>
+        <v>0.0003540833131410182</v>
       </c>
       <c r="GC7" t="n">
-        <v>1.143286044680281e-05</v>
+        <v>0.0005254122079350054</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0001955149491550401</v>
+        <v>0.001003151875920594</v>
       </c>
       <c r="GE7" t="n">
-        <v>5.792544106952846e-05</v>
+        <v>0.002004534471780062</v>
       </c>
       <c r="GF7" t="n">
-        <v>7.65114527894184e-05</v>
+        <v>6.635194586124271e-05</v>
       </c>
       <c r="GG7" t="n">
-        <v>2.516562744858675e-05</v>
+        <v>0.0001786655193427578</v>
       </c>
     </row>
     <row r="8">
@@ -4987,3985 +4987,3985 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.863524398184381e-06</v>
+        <v>4.140151332876485e-09</v>
       </c>
       <c r="B9" t="n">
-        <v>5.157604618943878e-07</v>
+        <v>1.380034220233028e-08</v>
       </c>
       <c r="C9" t="n">
-        <v>1.100170629797503e-05</v>
+        <v>2.356320694119063e-09</v>
       </c>
       <c r="D9" t="n">
-        <v>6.482352546299808e-06</v>
+        <v>2.742504179309435e-08</v>
       </c>
       <c r="E9" t="n">
-        <v>1.211686776514398e-05</v>
+        <v>2.210837291016787e-09</v>
       </c>
       <c r="F9" t="n">
-        <v>3.198699232598301e-06</v>
+        <v>5.030050820309384e-10</v>
       </c>
       <c r="G9" t="n">
-        <v>2.040354729615501e-06</v>
+        <v>1.201263533090469e-09</v>
       </c>
       <c r="H9" t="n">
-        <v>8.24268852284149e-07</v>
+        <v>1.212930533789347e-09</v>
       </c>
       <c r="I9" t="n">
-        <v>1.139239248004742e-05</v>
+        <v>2.129713738696637e-09</v>
       </c>
       <c r="J9" t="n">
-        <v>5.649289960274473e-07</v>
+        <v>6.226163584699407e-09</v>
       </c>
       <c r="K9" t="n">
-        <v>5.854360551893478e-07</v>
+        <v>1.318232101255035e-08</v>
       </c>
       <c r="L9" t="n">
-        <v>1.386231360811507e-05</v>
+        <v>4.60325971785025e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>4.489140337682329e-06</v>
+        <v>1.044535391514501e-08</v>
       </c>
       <c r="N9" t="n">
-        <v>8.962673746282235e-06</v>
+        <v>1.145616046471787e-09</v>
       </c>
       <c r="O9" t="n">
-        <v>2.605101144581567e-06</v>
+        <v>5.483550502560774e-09</v>
       </c>
       <c r="P9" t="n">
-        <v>2.273982318001799e-07</v>
+        <v>1.979228780868425e-09</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.451572072459385e-06</v>
+        <v>1.006947236703581e-08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.202979819936445e-05</v>
+        <v>2.587131842091139e-09</v>
       </c>
       <c r="S9" t="n">
-        <v>1.614184384379769e-06</v>
+        <v>1.641005109576099e-09</v>
       </c>
       <c r="T9" t="n">
-        <v>3.44405430041661e-06</v>
+        <v>1.516014758173867e-09</v>
       </c>
       <c r="U9" t="n">
-        <v>1.651337129260355e-07</v>
+        <v>1.600175991711694e-09</v>
       </c>
       <c r="V9" t="n">
-        <v>4.621995685738511e-06</v>
+        <v>8.610280266552195e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>2.037424565060064e-06</v>
+        <v>4.737425118861438e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>1.346711542282719e-07</v>
+        <v>8.548157737209294e-10</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.868654279263865e-07</v>
+        <v>8.949404772806702e-09</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.359432303615904e-06</v>
+        <v>1.688089446005847e-09</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.22964490603772e-06</v>
+        <v>5.150637250039836e-09</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.877178980677854e-07</v>
+        <v>3.13732018142332e-09</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.167274149338482e-06</v>
+        <v>4.655125174224395e-09</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.269528297598299e-06</v>
+        <v>1.225589296716123e-09</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.265509465360083e-06</v>
+        <v>4.97931207377178e-09</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.247461679871776e-06</v>
+        <v>3.714822227607328e-09</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.868080041997018e-07</v>
+        <v>7.186565564865077e-09</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.561596587242093e-07</v>
+        <v>3.830671779780914e-09</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.457370662043104e-06</v>
+        <v>3.230976819423859e-09</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.40173505214625e-06</v>
+        <v>4.277234566529842e-09</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.47079890666646e-06</v>
+        <v>1.55372437138368e-09</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.088895255132229e-06</v>
+        <v>4.91053686602072e-09</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.493876642503892e-07</v>
+        <v>1.20633203426479e-09</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.634062866491149e-06</v>
+        <v>3.147066385267294e-09</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.69307156738796e-07</v>
+        <v>6.380232786540319e-09</v>
       </c>
       <c r="AP9" t="n">
-        <v>6.877191481180489e-06</v>
+        <v>3.088335809309228e-09</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.958144247917517e-07</v>
+        <v>4.378845286368005e-09</v>
       </c>
       <c r="AR9" t="n">
-        <v>7.13782924322004e-07</v>
+        <v>2.932611931072415e-09</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.63112383436237e-07</v>
+        <v>3.415808524920294e-09</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.258406195527641e-06</v>
+        <v>3.131321868465875e-10</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.83820509139332e-06</v>
+        <v>4.193871028235208e-09</v>
       </c>
       <c r="AV9" t="n">
-        <v>6.327947630779818e-06</v>
+        <v>9.358167574191611e-10</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.71231999451993e-06</v>
+        <v>1.092699353222315e-08</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.153223588014953e-06</v>
+        <v>1.53865564733735e-09</v>
       </c>
       <c r="AY9" t="n">
-        <v>7.114103027561214e-06</v>
+        <v>1.727029519393852e-09</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.700383336356026e-06</v>
+        <v>3.792143932201952e-09</v>
       </c>
       <c r="BA9" t="n">
-        <v>3.273587026342284e-06</v>
+        <v>2.154959988232008e-09</v>
       </c>
       <c r="BB9" t="n">
-        <v>5.009879714634735e-06</v>
+        <v>6.298146448813213e-09</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.087936652766075e-06</v>
+        <v>3.255944847069259e-09</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.828649601520738e-06</v>
+        <v>1.457691745088141e-09</v>
       </c>
       <c r="BE9" t="n">
-        <v>5.096953373140423e-06</v>
+        <v>4.270720443955156e-10</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.140973324709194e-07</v>
+        <v>1.40005829152301e-09</v>
       </c>
       <c r="BG9" t="n">
-        <v>3.138926331303082e-06</v>
+        <v>2.022926492983856e-09</v>
       </c>
       <c r="BH9" t="n">
-        <v>3.483803538983921e-06</v>
+        <v>2.393105047460153e-09</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.534943066872074e-06</v>
+        <v>1.254340742384841e-09</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2.411368086541188e-06</v>
+        <v>1.117101255942998e-08</v>
       </c>
       <c r="BK9" t="n">
-        <v>6.046629437150841e-07</v>
+        <v>1.477162392404807e-09</v>
       </c>
       <c r="BL9" t="n">
-        <v>1.368341600027634e-06</v>
+        <v>3.219178479341167e-09</v>
       </c>
       <c r="BM9" t="n">
-        <v>1.336492232439923e-06</v>
+        <v>3.560379102651723e-09</v>
       </c>
       <c r="BN9" t="n">
-        <v>6.178890089358902e-06</v>
+        <v>2.87995116643458e-09</v>
       </c>
       <c r="BO9" t="n">
-        <v>2.125335640812409e-06</v>
+        <v>9.701339731549297e-10</v>
       </c>
       <c r="BP9" t="n">
-        <v>2.141472350558615e-07</v>
+        <v>3.297054407269684e-09</v>
       </c>
       <c r="BQ9" t="n">
-        <v>2.390873760305112e-06</v>
+        <v>5.142786640988106e-09</v>
       </c>
       <c r="BR9" t="n">
-        <v>3.220697635697434e-06</v>
+        <v>6.015588027707963e-10</v>
       </c>
       <c r="BS9" t="n">
-        <v>2.359012114538928e-06</v>
+        <v>3.784577096155317e-10</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.887906591946376e-06</v>
+        <v>5.995550722559528e-10</v>
       </c>
       <c r="BU9" t="n">
-        <v>1.803047439352667e-06</v>
+        <v>9.397070899197502e-10</v>
       </c>
       <c r="BV9" t="n">
-        <v>1.83293423106079e-07</v>
+        <v>3.958996241948398e-09</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.208395474350255e-06</v>
+        <v>6.499832339024181e-10</v>
       </c>
       <c r="BX9" t="n">
-        <v>2.136982857336989e-06</v>
+        <v>4.794516783590552e-09</v>
       </c>
       <c r="BY9" t="n">
-        <v>6.010547622281592e-06</v>
+        <v>2.318593539385461e-09</v>
       </c>
       <c r="BZ9" t="n">
-        <v>6.688501912321954e-07</v>
+        <v>1.6038326222656e-09</v>
       </c>
       <c r="CA9" t="n">
-        <v>7.161481789808022e-07</v>
+        <v>3.372123025258134e-09</v>
       </c>
       <c r="CB9" t="n">
-        <v>8.701451861270471e-07</v>
+        <v>2.443885316338879e-09</v>
       </c>
       <c r="CC9" t="n">
-        <v>5.585090093518374e-06</v>
+        <v>5.936199531930697e-09</v>
       </c>
       <c r="CD9" t="n">
-        <v>6.823668172728503e-07</v>
+        <v>6.302446897699099e-10</v>
       </c>
       <c r="CE9" t="n">
-        <v>3.203973619747558e-06</v>
+        <v>2.472882787429853e-09</v>
       </c>
       <c r="CF9" t="n">
-        <v>2.021200316448812e-06</v>
+        <v>2.375690533185093e-09</v>
       </c>
       <c r="CG9" t="n">
-        <v>6.841730737505713e-09</v>
+        <v>3.167696549510879e-09</v>
       </c>
       <c r="CH9" t="n">
-        <v>2.701358653212083e-06</v>
+        <v>1.627157741879159e-09</v>
       </c>
       <c r="CI9" t="n">
-        <v>2.197189132857602e-06</v>
+        <v>6.340744596045056e-11</v>
       </c>
       <c r="CJ9" t="n">
-        <v>6.662268674517691e-07</v>
+        <v>2.501392426523807e-09</v>
       </c>
       <c r="CK9" t="n">
-        <v>7.961129426803382e-07</v>
+        <v>7.409490243581729e-10</v>
       </c>
       <c r="CL9" t="n">
-        <v>1.020460899781028e-06</v>
+        <v>3.445133289758928e-09</v>
       </c>
       <c r="CM9" t="n">
-        <v>3.451499196671648e-06</v>
+        <v>5.913256551082213e-10</v>
       </c>
       <c r="CN9" t="n">
-        <v>9.95481968857348e-06</v>
+        <v>4.358944316606994e-09</v>
       </c>
       <c r="CO9" t="n">
-        <v>5.258380042505451e-07</v>
+        <v>1.077868017063111e-09</v>
       </c>
       <c r="CP9" t="n">
-        <v>2.886114998545963e-06</v>
+        <v>7.952976943670365e-09</v>
       </c>
       <c r="CQ9" t="n">
-        <v>3.280400505900616e-06</v>
+        <v>5.10444841950175e-09</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.535014234832488e-06</v>
+        <v>4.238399409217664e-09</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.94001836462121e-06</v>
+        <v>6.278369379941751e-09</v>
       </c>
       <c r="CT9" t="n">
-        <v>9.019971969337348e-08</v>
+        <v>1.073280486707517e-08</v>
       </c>
       <c r="CU9" t="n">
-        <v>4.091902155778371e-06</v>
+        <v>8.645666405016073e-10</v>
       </c>
       <c r="CV9" t="n">
-        <v>8.87445480657334e-07</v>
+        <v>9.814294932297685e-10</v>
       </c>
       <c r="CW9" t="n">
-        <v>3.237747250750544e-06</v>
+        <v>2.8853577305199e-09</v>
       </c>
       <c r="CX9" t="n">
-        <v>2.407195097475778e-06</v>
+        <v>8.908054294209933e-10</v>
       </c>
       <c r="CY9" t="n">
-        <v>6.88674788307253e-08</v>
+        <v>5.071858044658484e-09</v>
       </c>
       <c r="CZ9" t="n">
-        <v>3.778776772378478e-06</v>
+        <v>1.493788426287779e-09</v>
       </c>
       <c r="DA9" t="n">
-        <v>2.260758265038021e-06</v>
+        <v>1.081933209690078e-09</v>
       </c>
       <c r="DB9" t="n">
-        <v>8.358040304301539e-08</v>
+        <v>2.441011393017334e-09</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.608197521818511e-07</v>
+        <v>1.272946192898416e-09</v>
       </c>
       <c r="DD9" t="n">
-        <v>2.029957840932184e-06</v>
+        <v>2.553070865829454e-09</v>
       </c>
       <c r="DE9" t="n">
-        <v>3.955689408030594e-06</v>
+        <v>9.395138000911629e-10</v>
       </c>
       <c r="DF9" t="n">
-        <v>8.632080607640091e-06</v>
+        <v>3.585379104720232e-09</v>
       </c>
       <c r="DG9" t="n">
-        <v>6.953049251023913e-06</v>
+        <v>1.139076299949693e-08</v>
       </c>
       <c r="DH9" t="n">
-        <v>3.54047824657755e-06</v>
+        <v>2.45865159342884e-08</v>
       </c>
       <c r="DI9" t="n">
-        <v>2.321986585229752e-06</v>
+        <v>7.199536966595588e-09</v>
       </c>
       <c r="DJ9" t="n">
-        <v>2.990376287925756e-06</v>
+        <v>8.077243318638239e-10</v>
       </c>
       <c r="DK9" t="n">
-        <v>3.322225893498398e-06</v>
+        <v>1.390508264087487e-09</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.575079551230374e-07</v>
+        <v>1.351991230080785e-08</v>
       </c>
       <c r="DM9" t="n">
-        <v>1.68910219144891e-06</v>
+        <v>6.70900057730961e-10</v>
       </c>
       <c r="DN9" t="n">
-        <v>1.516182010163902e-06</v>
+        <v>1.919872261169076e-09</v>
       </c>
       <c r="DO9" t="n">
-        <v>3.868025487463456e-06</v>
+        <v>4.77302919410505e-10</v>
       </c>
       <c r="DP9" t="n">
-        <v>3.636978362919763e-06</v>
+        <v>4.341023984721915e-09</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.20334300390823e-06</v>
+        <v>2.30381558274928e-09</v>
       </c>
       <c r="DR9" t="n">
-        <v>5.240627274361032e-07</v>
+        <v>2.370629470505037e-09</v>
       </c>
       <c r="DS9" t="n">
-        <v>2.361742019729718e-07</v>
+        <v>3.620166166840022e-09</v>
       </c>
       <c r="DT9" t="n">
-        <v>5.373624389903853e-07</v>
+        <v>1.600553356517764e-09</v>
       </c>
       <c r="DU9" t="n">
-        <v>3.026166950803599e-06</v>
+        <v>6.109411865296011e-10</v>
       </c>
       <c r="DV9" t="n">
-        <v>1.432254066457972e-06</v>
+        <v>8.538892259934983e-09</v>
       </c>
       <c r="DW9" t="n">
-        <v>8.152067607625213e-07</v>
+        <v>2.536972409927785e-09</v>
       </c>
       <c r="DX9" t="n">
-        <v>1.434687987966754e-06</v>
+        <v>1.382935321814216e-09</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.128217718360247e-06</v>
+        <v>3.163970641040237e-09</v>
       </c>
       <c r="DZ9" t="n">
-        <v>3.695657824209775e-08</v>
+        <v>1.070902477806612e-09</v>
       </c>
       <c r="EA9" t="n">
-        <v>4.50970674137352e-06</v>
+        <v>3.12693848592005e-09</v>
       </c>
       <c r="EB9" t="n">
-        <v>1.05638139302755e-06</v>
+        <v>7.138492463809598e-09</v>
       </c>
       <c r="EC9" t="n">
-        <v>3.514146271754726e-07</v>
+        <v>3.38974026625749e-09</v>
       </c>
       <c r="ED9" t="n">
-        <v>3.105407586190267e-06</v>
+        <v>7.656942302425307e-10</v>
       </c>
       <c r="EE9" t="n">
-        <v>4.838141762775194e-07</v>
+        <v>5.155937898848606e-10</v>
       </c>
       <c r="EF9" t="n">
-        <v>4.943231033394113e-07</v>
+        <v>5.650243051213977e-10</v>
       </c>
       <c r="EG9" t="n">
-        <v>4.259400611772435e-06</v>
+        <v>2.145759792071544e-09</v>
       </c>
       <c r="EH9" t="n">
-        <v>1.830632299970603e-06</v>
+        <v>1.010209249585614e-09</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.498059305049537e-06</v>
+        <v>1.968587071132788e-09</v>
       </c>
       <c r="EJ9" t="n">
-        <v>2.011495325859869e-06</v>
+        <v>1.690453776959089e-09</v>
       </c>
       <c r="EK9" t="n">
-        <v>5.307824721967336e-06</v>
+        <v>3.67861324734875e-10</v>
       </c>
       <c r="EL9" t="n">
-        <v>3.266946464464127e-07</v>
+        <v>2.271980159562759e-09</v>
       </c>
       <c r="EM9" t="n">
-        <v>8.307342227453773e-07</v>
+        <v>1.235313851211117e-09</v>
       </c>
       <c r="EN9" t="n">
-        <v>1.3621040579892e-06</v>
+        <v>2.506512775113379e-09</v>
       </c>
       <c r="EO9" t="n">
-        <v>1.059634996636305e-06</v>
+        <v>1.442640340520995e-09</v>
       </c>
       <c r="EP9" t="n">
-        <v>2.203639724029927e-07</v>
+        <v>2.26477925302504e-09</v>
       </c>
       <c r="EQ9" t="n">
-        <v>9.034798722495907e-07</v>
+        <v>3.377483182021024e-09</v>
       </c>
       <c r="ER9" t="n">
-        <v>8.115789569274057e-07</v>
+        <v>1.29925792347052e-09</v>
       </c>
       <c r="ES9" t="n">
-        <v>6.989473604335217e-07</v>
+        <v>7.623805586831622e-09</v>
       </c>
       <c r="ET9" t="n">
-        <v>2.999431217176607e-06</v>
+        <v>2.194940229571785e-09</v>
       </c>
       <c r="EU9" t="n">
-        <v>1.442846723875846e-06</v>
+        <v>6.052295886682657e-10</v>
       </c>
       <c r="EV9" t="n">
-        <v>8.212691682274453e-07</v>
+        <v>7.273089686066214e-09</v>
       </c>
       <c r="EW9" t="n">
-        <v>1.275769932362891e-06</v>
+        <v>2.530160969627104e-09</v>
       </c>
       <c r="EX9" t="n">
-        <v>1.34039942167874e-06</v>
+        <v>7.616967057089141e-10</v>
       </c>
       <c r="EY9" t="n">
-        <v>3.089254278165754e-06</v>
+        <v>2.514800589992205e-09</v>
       </c>
       <c r="EZ9" t="n">
-        <v>2.353016043343814e-06</v>
+        <v>1.873272426067274e-09</v>
       </c>
       <c r="FA9" t="n">
-        <v>6.086261805648974e-07</v>
+        <v>3.835232131876865e-09</v>
       </c>
       <c r="FB9" t="n">
-        <v>2.004005636990769e-06</v>
+        <v>8.074808599545236e-10</v>
       </c>
       <c r="FC9" t="n">
-        <v>1.853563958320592e-06</v>
+        <v>6.460977308719862e-10</v>
       </c>
       <c r="FD9" t="n">
-        <v>4.995046083422494e-07</v>
+        <v>2.518457664635321e-09</v>
       </c>
       <c r="FE9" t="n">
-        <v>1.001106056719436e-06</v>
+        <v>7.253852518651627e-10</v>
       </c>
       <c r="FF9" t="n">
-        <v>2.611470790725434e-06</v>
+        <v>3.322297770225191e-09</v>
       </c>
       <c r="FG9" t="n">
-        <v>1.98812654161884e-06</v>
+        <v>9.880013474017346e-10</v>
       </c>
       <c r="FH9" t="n">
-        <v>6.432856025639921e-08</v>
+        <v>4.003850140321674e-09</v>
       </c>
       <c r="FI9" t="n">
-        <v>9.172492809739197e-08</v>
+        <v>6.169941002553969e-09</v>
       </c>
       <c r="FJ9" t="n">
-        <v>4.128717137064086e-07</v>
+        <v>8.194343870115972e-09</v>
       </c>
       <c r="FK9" t="n">
-        <v>3.538452119755675e-06</v>
+        <v>4.593990965418016e-09</v>
       </c>
       <c r="FL9" t="n">
-        <v>1.664138835621998e-06</v>
+        <v>9.588665417226139e-10</v>
       </c>
       <c r="FM9" t="n">
-        <v>2.844207642738183e-07</v>
+        <v>4.783367479888057e-09</v>
       </c>
       <c r="FN9" t="n">
-        <v>3.338855776746641e-06</v>
+        <v>2.473591109719564e-09</v>
       </c>
       <c r="FO9" t="n">
-        <v>2.166922968172003e-06</v>
+        <v>1.047639197615524e-10</v>
       </c>
       <c r="FP9" t="n">
-        <v>9.515010788163636e-07</v>
+        <v>1.264517379695462e-10</v>
       </c>
       <c r="FQ9" t="n">
-        <v>6.604000191146042e-07</v>
+        <v>5.056073337783573e-10</v>
       </c>
       <c r="FR9" t="n">
-        <v>1.062010710484174e-07</v>
+        <v>6.580139766398929e-10</v>
       </c>
       <c r="FS9" t="n">
-        <v>2.345643451917567e-06</v>
+        <v>1.389348303071358e-09</v>
       </c>
       <c r="FT9" t="n">
-        <v>5.799646260129521e-06</v>
+        <v>4.933263575424007e-09</v>
       </c>
       <c r="FU9" t="n">
-        <v>4.088959144610271e-07</v>
+        <v>2.197383941471287e-10</v>
       </c>
       <c r="FV9" t="n">
-        <v>1.458628617001523e-06</v>
+        <v>1.066455923570686e-09</v>
       </c>
       <c r="FW9" t="n">
-        <v>2.014023721130798e-06</v>
+        <v>3.035431905829e-09</v>
       </c>
       <c r="FX9" t="n">
-        <v>3.026244712600601e-06</v>
+        <v>1.355051959528453e-09</v>
       </c>
       <c r="FY9" t="n">
-        <v>5.154192876943853e-07</v>
+        <v>4.027603583978134e-09</v>
       </c>
       <c r="FZ9" t="n">
-        <v>2.054468268397613e-06</v>
+        <v>3.405585147220336e-09</v>
       </c>
       <c r="GA9" t="n">
-        <v>2.243109975097468e-06</v>
+        <v>5.223637078444199e-10</v>
       </c>
       <c r="GB9" t="n">
-        <v>1.780740490175958e-06</v>
+        <v>8.464183798295721e-10</v>
       </c>
       <c r="GC9" t="n">
-        <v>4.378850348984997e-07</v>
+        <v>2.774742657862816e-09</v>
       </c>
       <c r="GD9" t="n">
-        <v>3.32533545588376e-06</v>
+        <v>2.567588364144058e-09</v>
       </c>
       <c r="GE9" t="n">
-        <v>8.867444307725236e-07</v>
+        <v>1.146298433951642e-08</v>
       </c>
       <c r="GF9" t="n">
-        <v>1.995788579733926e-06</v>
+        <v>2.863520531803943e-09</v>
       </c>
       <c r="GG9" t="n">
-        <v>7.962079280332546e-07</v>
+        <v>7.310104077618007e-09</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.04043909907341003</v>
+        <v>0.001273344270884991</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2390258759260178</v>
+        <v>0.005446677096188068</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01985784806311131</v>
+        <v>0.0002027417649514973</v>
       </c>
       <c r="D10" t="n">
-        <v>0.248807966709137</v>
+        <v>0.002332872711122036</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0336681641638279</v>
+        <v>9.105151548283175e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05117968842387199</v>
+        <v>0.004205639474093914</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07437970489263535</v>
+        <v>0.0004904887755401433</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02052910625934601</v>
+        <v>0.0004277487169019878</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2227356731891632</v>
+        <v>5.435933417174965e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0496617890894413</v>
+        <v>0.001449406147003174</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1679647713899612</v>
+        <v>0.003647296689450741</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09326447546482086</v>
+        <v>0.0003622992371674627</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2096319943666458</v>
+        <v>0.003233282826840878</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1003026962280273</v>
+        <v>0.001193691277876496</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1191318929195404</v>
+        <v>0.004835788160562515</v>
       </c>
       <c r="P10" t="n">
-        <v>0.05619799345731735</v>
+        <v>0.0007422543130815029</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01385251805186272</v>
+        <v>0.0006566374213434756</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2534453868865967</v>
+        <v>2.78473107755417e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05355808138847351</v>
+        <v>0.0002045294677373022</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02278142794966698</v>
+        <v>0.0009757177904248238</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01645315811038017</v>
+        <v>8.282889029942453e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01196513045579195</v>
+        <v>0.0005112299695611</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2476884722709656</v>
+        <v>0.0003500769380480051</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02974968031048775</v>
+        <v>4.559130320558324e-05</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01730467937886715</v>
+        <v>0.0004515965119935572</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.009864479303359985</v>
+        <v>0.0001161863910965621</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01614079438149929</v>
+        <v>0.0003602658398449421</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0430900901556015</v>
+        <v>0.0002506008604541421</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0596417523920536</v>
+        <v>0.001020877389237285</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.06130637228488922</v>
+        <v>2.861327811842784e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0261195432394743</v>
+        <v>0.0007061493233777583</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.08777935057878494</v>
+        <v>3.102529444731772e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.07169856876134872</v>
+        <v>5.647854413837194e-05</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.00616846140474081</v>
+        <v>0.0007782960892654955</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.06024562567472458</v>
+        <v>0.0001648566394578665</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.06632570922374725</v>
+        <v>4.506248660618439e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.07577075809240341</v>
+        <v>0.0006922441534698009</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.04179815948009491</v>
+        <v>0.000648052548058331</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.02503324113786221</v>
+        <v>0.0001966244599316269</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.01726098172366619</v>
+        <v>0.0002054070355370641</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.01029176265001297</v>
+        <v>0.0001707593910396099</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.07578224688768387</v>
+        <v>0.001039359834976494</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.02461462095379829</v>
+        <v>0.0006165567901916802</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.02400942333042622</v>
+        <v>0.0001973973703570664</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.006907335016876459</v>
+        <v>0.0004740389122162014</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.03488911688327789</v>
+        <v>0.001203193329274654</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.1145120114088058</v>
+        <v>0.005028957966715097</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.05145717412233353</v>
+        <v>0.0004973605391569436</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1113571226596832</v>
+        <v>0.0003487629583105445</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.01289471890777349</v>
+        <v>0.001759789767675102</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.08195159584283829</v>
+        <v>0.001669281860813498</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.05678856000304222</v>
+        <v>0.0001543477701488882</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.04695092886686325</v>
+        <v>0.001112580997869372</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.06368806958198547</v>
+        <v>0.0006121050100773573</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.01760721206665039</v>
+        <v>0.0009273652685806155</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.08669210970401764</v>
+        <v>0.0006466007325798273</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.02801996655762196</v>
+        <v>0.001491138944402337</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.05699393525719643</v>
+        <v>0.000755747314542532</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.02043372020125389</v>
+        <v>0.002190027618780732</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.01702386140823364</v>
+        <v>0.002012840704992414</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.004497106187045574</v>
+        <v>0.0003562466008588672</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.01965693756937981</v>
+        <v>0.001252696965821087</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.07666005194187164</v>
+        <v>3.216759068891406e-05</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.04576848819851875</v>
+        <v>0.0001344525517197326</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.02370357140898705</v>
+        <v>0.001721395063214004</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.06272202730178833</v>
+        <v>0.0002236540894955397</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.01707984507083893</v>
+        <v>0.002317049307748675</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.01575596630573273</v>
+        <v>0.001568290288560092</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0006916031707078218</v>
+        <v>8.288928074762225e-05</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.01958588138222694</v>
+        <v>0.0008343364461325109</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.005146950483322144</v>
+        <v>0.000736336805857718</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.03235993161797523</v>
+        <v>0.000126776605611667</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.08390387892723083</v>
+        <v>0.0004764272598549724</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.05075547844171524</v>
+        <v>0.002113051014021039</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.04180280864238739</v>
+        <v>5.070731276646256e-05</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.06672190874814987</v>
+        <v>7.191710756160319e-05</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.0397549569606781</v>
+        <v>0.0001189412141684443</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.001511193695478141</v>
+        <v>8.847215212881565e-06</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.01090347580611706</v>
+        <v>0.0008239935268647969</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.03184997290372849</v>
+        <v>0.0006731858011335135</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.1243138387799263</v>
+        <v>0.0004513254971243441</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.05961985141038895</v>
+        <v>0.0002528569020796567</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.07486816495656967</v>
+        <v>0.001063329633325338</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.008913548663258553</v>
+        <v>0.0005075880908407271</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.04424461722373962</v>
+        <v>0.0006083951448090374</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.01632183417677879</v>
+        <v>0.0002845884882844985</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.003701757173985243</v>
+        <v>0.0007291068905033171</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.01173137780278921</v>
+        <v>0.0002455746580380946</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.01131575740873814</v>
+        <v>7.424674549838528e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.03292407840490341</v>
+        <v>0.000264782109297812</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.00118565559387207</v>
+        <v>0.001029148581437767</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.08087172359228134</v>
+        <v>0.0009519900195300579</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.01277812384068966</v>
+        <v>0.0004532655002549291</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.03423077613115311</v>
+        <v>0.0007907613180577755</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.1232731267809868</v>
+        <v>0.0002536964602768421</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.1580008715391159</v>
+        <v>0.0002854812773875892</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.0002820752561092377</v>
+        <v>0.0003248805878683925</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.007147490046918392</v>
+        <v>0.0002180853043682873</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.01049630530178547</v>
+        <v>6.533620035042986e-05</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.07312949746847153</v>
+        <v>0.000139431023853831</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.09392501413822174</v>
+        <v>0.0007030386477708817</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.005074334796518087</v>
+        <v>0.0004867542593274266</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.04961240664124489</v>
+        <v>0.0009328388259746134</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.03410875052213669</v>
+        <v>0.0001427683746442199</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.00594282103702426</v>
+        <v>0.0007352184038609266</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.01243661623448133</v>
+        <v>0.0003148994001094252</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.0156413521617651</v>
+        <v>0.0002745552046690136</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.03559498488903046</v>
+        <v>0.0001288229395868257</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.08559888601303101</v>
+        <v>0.001075247768312693</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.1826801151037216</v>
+        <v>0.002281591529026628</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.1414285153150558</v>
+        <v>2.74591329798568e-05</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.05670113861560822</v>
+        <v>0.00101462344173342</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.01837564446032047</v>
+        <v>0.0007005846127867699</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0704503133893013</v>
+        <v>0.0001437151513528079</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.03639455139636993</v>
+        <v>0.001342020579613745</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.03605373203754425</v>
+        <v>0.000920669874176383</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.007416870445013046</v>
+        <v>0.0004174223286099732</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.02457434497773647</v>
+        <v>0.001082463772036135</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.01165947783738375</v>
+        <v>0.0006549432873725891</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.02503738552331924</v>
+        <v>0.0006240837392397225</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.04087891057133675</v>
+        <v>0.0009204331436194479</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.1192177906632423</v>
+        <v>0.0002473643398843706</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.09400881826877594</v>
+        <v>0.000561234715860337</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.01124314963817596</v>
+        <v>7.701312279095873e-05</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.06333033740520477</v>
+        <v>0.0004647290916182101</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.004568392410874367</v>
+        <v>0.0004105689295101911</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.004944048821926117</v>
+        <v>0.0001089629658963531</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.02346078678965569</v>
+        <v>0.0001953190076164901</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.03802630677819252</v>
+        <v>0.001038128626532853</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.05457506701350212</v>
+        <v>0.000280567561276257</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.03510636836290359</v>
+        <v>0.000542595109436661</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.07609649002552032</v>
+        <v>0.0003737404476851225</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.001761063234880567</v>
+        <v>0.0003378954716026783</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.002658662851899862</v>
+        <v>0.0001836970332078636</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.05858637019991875</v>
+        <v>0.000111400215246249</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.05682799220085144</v>
+        <v>0.0003723244299180806</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.07350057363510132</v>
+        <v>0.0001280437281820923</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.009453845210373402</v>
+        <v>9.145851072389632e-05</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.02213816158473492</v>
+        <v>0.0004878705949522555</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.03071994334459305</v>
+        <v>7.766942144371569e-05</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.008599972352385521</v>
+        <v>0.0005583578022196889</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.039924256503582</v>
+        <v>0.000617247074842453</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.03523262962698936</v>
+        <v>0.0002211262908531353</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.02887827157974243</v>
+        <v>0.0001051063009072095</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.0738375261425972</v>
+        <v>0.0008167055202648044</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.1103607416152954</v>
+        <v>0.0004218427347950637</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.1253596097230911</v>
+        <v>7.525959517806768e-06</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.003218270838260651</v>
+        <v>0.0006695108604617417</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.06058074533939362</v>
+        <v>0.0002104797167703509</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.0223394613713026</v>
+        <v>0.001422401750460267</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.005240689963102341</v>
+        <v>0.0003093781415373087</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.03292178735136986</v>
+        <v>0.0007975075277499855</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.0106294360011816</v>
+        <v>1.554425398353487e-05</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.05673632025718689</v>
+        <v>0.0002154254179913551</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.08170855790376663</v>
+        <v>0.0006381976418197155</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.009300105273723602</v>
+        <v>0.0002420086821075529</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.03468076512217522</v>
+        <v>0.0006586539093405008</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.0427708625793457</v>
+        <v>0.0001553680776851252</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.01385269965976477</v>
+        <v>0.0007269350462593138</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0130204651504755</v>
+        <v>0.0003872686647810042</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.01095354463905096</v>
+        <v>2.435324131511152e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.04063490033149719</v>
+        <v>0.0003172908909618855</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.02323129400610924</v>
+        <v>0.00049540278268978</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.05214350670576096</v>
+        <v>0.0006479499279521406</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.07062915712594986</v>
+        <v>0.0003343764692544937</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.01930600591003895</v>
+        <v>1.373700797557831e-05</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.005457209423184395</v>
+        <v>8.367909322259948e-05</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.01296256575733423</v>
+        <v>7.731328514637426e-05</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.002889660187065601</v>
+        <v>0.000129038337036036</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.05721453577280045</v>
+        <v>0.0001165793655673042</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.01317963469773531</v>
+        <v>0.0001280146971112117</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.004214680753648281</v>
+        <v>0.000683391815982759</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.05461731553077698</v>
+        <v>0.0005198428989388049</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.01005359180271626</v>
+        <v>0.0001228176261065528</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.02869348600506783</v>
+        <v>0.0005702578346244991</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0007302043959498405</v>
+        <v>0.002869328483939171</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.01827223040163517</v>
+        <v>0.0004854425496887416</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.003305734135210514</v>
+        <v>6.943619519006461e-05</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.01125474832952023</v>
+        <v>0.0006311783217824996</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.07308761030435562</v>
+        <v>9.246314584743232e-05</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.04898503422737122</v>
+        <v>0.0004907256807200611</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.03048084676265717</v>
+        <v>0.001208088360726833</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.06229898706078529</v>
+        <v>0.0004564574337564409</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.005482230335474014</v>
+        <v>0.001071999198757112</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.008575050160288811</v>
+        <v>0.000325482280459255</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.004825835581868887</v>
+        <v>0.0006542279152199626</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.01625045016407967</v>
+        <v>0.001506608445197344</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.01123244967311621</v>
+        <v>0.001243641367182136</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.03163781762123108</v>
+        <v>0.0001298018323723227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.003999515436589718</v>
+        <v>0.00201160809956491</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01069443952292204</v>
+        <v>0.002212091814726591</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03087020292878151</v>
+        <v>0.01030558720231056</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0290041696280241</v>
+        <v>0.009338796138763428</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05861615762114525</v>
+        <v>0.01069963257759809</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1147265061736107</v>
+        <v>0.005024129524827003</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02442232519388199</v>
+        <v>0.00198887474834919</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1918459385633469</v>
+        <v>0.0006987423403188586</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01516393572092056</v>
+        <v>0.006269600708037615</v>
       </c>
       <c r="J11" t="n">
-        <v>0.007321774493902922</v>
+        <v>0.002746060257777572</v>
       </c>
       <c r="K11" t="n">
-        <v>2.682209014892578e-05</v>
+        <v>0.001019825460389256</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02239196933805943</v>
+        <v>0.009117195382714272</v>
       </c>
       <c r="M11" t="n">
-        <v>0.007573308423161507</v>
+        <v>0.01087324973195791</v>
       </c>
       <c r="N11" t="n">
-        <v>0.09119046479463577</v>
+        <v>0.00416944082826376</v>
       </c>
       <c r="O11" t="n">
-        <v>0.09229068458080292</v>
+        <v>0.002297325292602181</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04338032007217407</v>
+        <v>0.001621945761144161</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2290690839290619</v>
+        <v>0.002465120982378721</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01629757508635521</v>
+        <v>0.008910065516829491</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02207732200622559</v>
+        <v>0.000313357450067997</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002345875836908817</v>
+        <v>0.004264571703970432</v>
       </c>
       <c r="U11" t="n">
-        <v>0.008142193779349327</v>
+        <v>0.004166209138929844</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001676711486652493</v>
+        <v>0.002770585240796208</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04673513025045395</v>
+        <v>1.43215584103018e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01810070872306824</v>
+        <v>0.001724038040265441</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.00432933634147048</v>
+        <v>0.001010487438179553</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.07991912215948105</v>
+        <v>0.0007828234229236841</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.008826436474919319</v>
+        <v>0.001902270596474409</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01955382898449898</v>
+        <v>0.00454186974093318</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0300968624651432</v>
+        <v>0.00382518395781517</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.003802934428676963</v>
+        <v>0.0007943625096231699</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.05954665318131447</v>
+        <v>0.004079145379364491</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.01732602529227734</v>
+        <v>0.002486915094777942</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.03075145184993744</v>
+        <v>0.001030762330628932</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.05630721151828766</v>
+        <v>0.0008852736791595817</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.05659139901399612</v>
+        <v>0.00132709217723459</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.01334202475845814</v>
+        <v>0.003417458152398467</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.01311126910150051</v>
+        <v>0.001118895597755909</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.02748137898743153</v>
+        <v>0.0008748245891183615</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.04815644025802612</v>
+        <v>0.0004864861257374287</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.007774337194859982</v>
+        <v>0.0002806707052513957</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.08287370949983597</v>
+        <v>0.002994721755385399</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.00271992851048708</v>
+        <v>0.001151881297118962</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.002578885527327657</v>
+        <v>0.0007488252595067024</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.0003587689716368914</v>
+        <v>0.0008109947666525841</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0105691971257329</v>
+        <v>0.0002450955507811159</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.03572840243577957</v>
+        <v>0.005570882465690374</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.05852491408586502</v>
+        <v>0.00654904730618</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0006970064714550972</v>
+        <v>0.003593392204493284</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.02307067811489105</v>
+        <v>0.006217163056135178</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.01952295005321503</v>
+        <v>0.003117037238553166</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.08964464068412781</v>
+        <v>0.001204834552481771</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.005524720530956984</v>
+        <v>0.001554154558107257</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.06297527253627777</v>
+        <v>0.001429822761565447</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.007238533347845078</v>
+        <v>0.001509203808382154</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.01518002338707447</v>
+        <v>0.0009709707228466868</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.003668591845780611</v>
+        <v>0.00942249596118927</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.01476951129734516</v>
+        <v>0.003200679551810026</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.03541453182697296</v>
+        <v>0.003544854698702693</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.07285747677087784</v>
+        <v>0.0007626819424331188</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.002380507066845894</v>
+        <v>0.007526271510869265</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.02855385094881058</v>
+        <v>0.002332142321392894</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.04653875529766083</v>
+        <v>0.007029487285763025</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.009355715475976467</v>
+        <v>0.007223124150186777</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.009054596535861492</v>
+        <v>0.0003978714521508664</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.04267742484807968</v>
+        <v>0.0003501369501464069</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.03228050097823143</v>
+        <v>0.001439154846593738</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.01610920950770378</v>
+        <v>0.001791774062439799</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.01799174956977367</v>
+        <v>0.0001853884605225176</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.02222253754734993</v>
+        <v>6.126008520368487e-05</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.02478471584618092</v>
+        <v>0.001332803512923419</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.02755874022841454</v>
+        <v>0.002588158240541816</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.009056408889591694</v>
+        <v>0.0007025832892395556</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.02331537753343582</v>
+        <v>0.001855911104939878</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.01304037589579821</v>
+        <v>0.003403696930035949</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.005163061898201704</v>
+        <v>0.002820686902850866</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.03761379420757294</v>
+        <v>0.005216240417212248</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.01046389155089855</v>
+        <v>0.005571025889366865</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.05284064263105392</v>
+        <v>0.0004558666551019996</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.01272400189191103</v>
+        <v>0.0001319223083555698</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.07897244393825531</v>
+        <v>0.0005724612274207175</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.002490714890882373</v>
+        <v>0.002957817632704973</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.004724404774606228</v>
+        <v>0.0008993332739919424</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.00630286568775773</v>
+        <v>0.0007376210996881127</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.01093992777168751</v>
+        <v>0.00266126380302012</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.01604228280484676</v>
+        <v>0.002016865415498614</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01813838630914688</v>
+        <v>0.003131387755274773</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.024278175085783</v>
+        <v>0.00143804436083883</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.008909763768315315</v>
+        <v>0.0008610198274254799</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.03206229209899902</v>
+        <v>0.001337185269221663</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.007921637035906315</v>
+        <v>0.0003198818012606353</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.03127242624759674</v>
+        <v>0.004964935593307018</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.01413244195282459</v>
+        <v>0.004592250566929579</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.01070832181721926</v>
+        <v>0.0002703105565160513</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.02199859544634819</v>
+        <v>0.001727868802845478</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.03960949182510376</v>
+        <v>0.001252143876627088</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.01301370561122894</v>
+        <v>0.001600576448254287</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.03075672313570976</v>
+        <v>0.0005536634707823396</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.02009345218539238</v>
+        <v>0.004460051655769348</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.01994980312883854</v>
+        <v>0.000183586438652128</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.01138269249349833</v>
+        <v>0.0003081771719735116</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.005608812905848026</v>
+        <v>0.001396103412844241</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.01636307314038277</v>
+        <v>0.001986264949664474</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.01381484046578407</v>
+        <v>0.002495653927326202</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01930028758943081</v>
+        <v>0.002294468926265836</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.02086441777646542</v>
+        <v>0.0007261515129357576</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.004483464173972607</v>
+        <v>0.001103008864447474</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.04031265154480934</v>
+        <v>0.0009410810889676213</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.01104718539863825</v>
+        <v>0.0004899899358861148</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.09714704006910324</v>
+        <v>0.00161120411939919</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.0823056697845459</v>
+        <v>0.003391679609194398</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.01679055765271187</v>
+        <v>0.009832308627665043</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.03480935841798782</v>
+        <v>0.0007188672316260636</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.006541796028614044</v>
+        <v>0.001464826986193657</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.02215826511383057</v>
+        <v>0.001885308651253581</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.01768605038523674</v>
+        <v>0.002384766936302185</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.006465983111411333</v>
+        <v>0.003874328685924411</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.01389817334711552</v>
+        <v>0.001607195823453367</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.03299431130290031</v>
+        <v>0.001667508506216109</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.005401751026511192</v>
+        <v>0.005176184233278036</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.01317903213202953</v>
+        <v>0.0009971760446205735</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.001364189200103283</v>
+        <v>0.00165528419893235</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.02564157173037529</v>
+        <v>0.006599411834031343</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.009667291305959225</v>
+        <v>0.001452741213142872</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.04136662185192108</v>
+        <v>0.0006689914735034108</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.00493527390062809</v>
+        <v>0.0005377228371798992</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.008674068376421928</v>
+        <v>0.003729497082531452</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.01010178402066231</v>
+        <v>0.001183721702545881</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.02813570015132427</v>
+        <v>0.00546113308519125</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.01031905878335238</v>
+        <v>0.003043352859094739</v>
       </c>
       <c r="DZ11" t="n">
-        <v>3.519002348184586e-05</v>
+        <v>0.001348161837086082</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.004045631736516953</v>
+        <v>0.003490627510473132</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.001424068817868829</v>
+        <v>0.0002590649237390608</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0161709375679493</v>
+        <v>0.0005497969686985016</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.001670309109613299</v>
+        <v>0.00316406786441803</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.01489986944943666</v>
+        <v>0.00187413755338639</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.02361753955483437</v>
+        <v>0.0003247635322622955</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.02560879290103912</v>
+        <v>0.003723729168996215</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.001701218541711569</v>
+        <v>0.003444508882239461</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.03482691571116447</v>
+        <v>0.003917864058166742</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.01372504513710737</v>
+        <v>0.0003333065251354128</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.01666020601987839</v>
+        <v>0.0001580607495270669</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.01232707500457764</v>
+        <v>0.000980246695689857</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.03216494992375374</v>
+        <v>0.0004603311535902321</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.02311691828072071</v>
+        <v>0.001176691497676075</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.003087149001657963</v>
+        <v>0.00067831453634426</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.01478557009249926</v>
+        <v>0.004080424550920725</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.0121736004948616</v>
+        <v>0.0004722406156361103</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.00186616275459528</v>
+        <v>0.002650068607181311</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.02883018739521503</v>
+        <v>0.003144480288028717</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.02215146459639072</v>
+        <v>4.373016417957842e-05</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.008584863506257534</v>
+        <v>0.001253269263543189</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.03042516298592091</v>
+        <v>0.002041913568973541</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.01025278028100729</v>
+        <v>0.003732956480234861</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.009659597650170326</v>
+        <v>0.0006887923227623105</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.007993216626346111</v>
+        <v>0.002086431952193379</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.01650773920118809</v>
+        <v>0.002840562723577023</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.016181331127882</v>
+        <v>0.00243120058439672</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.02045184373855591</v>
+        <v>0.00248692324385047</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0216344203799963</v>
+        <v>0.0004370242240838706</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.008304407820105553</v>
+        <v>0.0009309988236054778</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.04235039278864861</v>
+        <v>0.001219889614731073</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.0108406338840723</v>
+        <v>0.0006302789552137256</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.007998552173376083</v>
+        <v>6.754428613930941e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.007712265942245722</v>
+        <v>0.002593317767605186</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.003858364885672927</v>
+        <v>0.0005765514215454459</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.01103698927909136</v>
+        <v>0.001753930700942874</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.001584931742399931</v>
+        <v>0.000282464490737766</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.0009766744915395975</v>
+        <v>0.001279962947592139</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.03953270986676216</v>
+        <v>0.0002443037228658795</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.02633664384484291</v>
+        <v>0.001765658846125007</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.001668664393946528</v>
+        <v>5.580091965384781e-05</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.02955962345004082</v>
+        <v>0.0006288051372393966</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.01642011851072311</v>
+        <v>0.00140728463884443</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.0008352608419954777</v>
+        <v>0.0007988510187715292</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.01486717909574509</v>
+        <v>0.0004853541031479836</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.05665983259677887</v>
+        <v>0.003157757688313723</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.05172611027956009</v>
+        <v>0.00165192352142185</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.02810220792889595</v>
+        <v>0.000283596629742533</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.04288811981678009</v>
+        <v>0.00388682447373867</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.01672152057290077</v>
+        <v>0.0008603211026638746</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.0226498655974865</v>
+        <v>0.0004573716141749173</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.02767712436616421</v>
+        <v>0.002615127246826887</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.01103928219527006</v>
+        <v>0.0008547279867343605</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.008357332088053226</v>
+        <v>0.001234351308085024</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.01429222617298365</v>
+        <v>0.003437911393120885</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.01795563846826553</v>
+        <v>0.002175095491111279</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.01640313491225243</v>
+        <v>0.001606541103683412</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.01176533289253712</v>
+        <v>0.003917744848877192</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.003681760281324387</v>
+        <v>0.0004179009119980037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.068758497841827e-08</v>
+        <v>4.399404861032963e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>6.649580797102317e-08</v>
+        <v>0.006116234231740236</v>
       </c>
       <c r="C12" t="n">
-        <v>1.345308220379593e-08</v>
+        <v>0.0009730981546454132</v>
       </c>
       <c r="D12" t="n">
-        <v>1.419064972196793e-07</v>
+        <v>0.004395796917378902</v>
       </c>
       <c r="E12" t="n">
-        <v>2.061457671231892e-08</v>
+        <v>0.007143587339669466</v>
       </c>
       <c r="F12" t="n">
-        <v>1.318923903426139e-08</v>
+        <v>0.01247485261410475</v>
       </c>
       <c r="G12" t="n">
-        <v>5.229772170878277e-11</v>
+        <v>0.0007180199027061462</v>
       </c>
       <c r="H12" t="n">
-        <v>1.283495087989195e-08</v>
+        <v>0.001672637416049838</v>
       </c>
       <c r="I12" t="n">
-        <v>2.770209839297877e-08</v>
+        <v>0.0048802699893713</v>
       </c>
       <c r="J12" t="n">
-        <v>2.271607080217564e-08</v>
+        <v>0.0008088899194262922</v>
       </c>
       <c r="K12" t="n">
-        <v>6.698495980117514e-08</v>
+        <v>0.004362616688013077</v>
       </c>
       <c r="L12" t="n">
-        <v>4.370086514882132e-09</v>
+        <v>0.0003344449505675584</v>
       </c>
       <c r="M12" t="n">
-        <v>1.340683013495436e-07</v>
+        <v>0.005028937477618456</v>
       </c>
       <c r="N12" t="n">
-        <v>2.656936892719841e-10</v>
+        <v>0.001410615863278508</v>
       </c>
       <c r="O12" t="n">
-        <v>3.088287670038881e-08</v>
+        <v>0.008376025594770908</v>
       </c>
       <c r="P12" t="n">
-        <v>1.792620096807696e-08</v>
+        <v>0.001348669058643281</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.47878962408754e-08</v>
+        <v>0.005383922252804041</v>
       </c>
       <c r="R12" t="n">
-        <v>1.855757769675392e-09</v>
+        <v>0.003312790766358376</v>
       </c>
       <c r="S12" t="n">
-        <v>1.396600524117275e-08</v>
+        <v>0.0007578954682685435</v>
       </c>
       <c r="T12" t="n">
-        <v>3.863995345909643e-09</v>
+        <v>0.0004643328720703721</v>
       </c>
       <c r="U12" t="n">
-        <v>7.288303294217258e-11</v>
+        <v>0.001294711953960359</v>
       </c>
       <c r="V12" t="n">
-        <v>1.531330262594111e-08</v>
+        <v>0.004848859272897243</v>
       </c>
       <c r="W12" t="n">
-        <v>5.951130788162118e-08</v>
+        <v>0.002369811991229653</v>
       </c>
       <c r="X12" t="n">
-        <v>3.231360956590379e-09</v>
+        <v>0.002742840442806482</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.078882050364882e-08</v>
+        <v>0.00259160459972918</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.550136851160346e-09</v>
+        <v>0.0005736406310461462</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.862493981263924e-08</v>
+        <v>0.001111607532948256</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.5547117371284e-08</v>
+        <v>0.001004697638563812</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.527084485062005e-09</v>
+        <v>0.001808892469853163</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.44201136879019e-10</v>
+        <v>0.003343792399391532</v>
       </c>
       <c r="AE12" t="n">
-        <v>3.662634284751221e-08</v>
+        <v>0.001209818758070469</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.957240452516885e-09</v>
+        <v>0.0004549532313831151</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.169674490597572e-08</v>
+        <v>0.001020098221488297</v>
       </c>
       <c r="AH12" t="n">
-        <v>3.263904702066611e-10</v>
+        <v>0.00390074634924531</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.088307884042024e-10</v>
+        <v>0.001358125358819962</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.96767984923008e-09</v>
+        <v>0.001931314473040402</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.191561148696564e-08</v>
+        <v>0.0001921995135489851</v>
       </c>
       <c r="AL12" t="n">
-        <v>6.411837727426928e-09</v>
+        <v>0.0006979370373301208</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.794049963090629e-09</v>
+        <v>2.793146995827556e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.784785983564689e-10</v>
+        <v>8.804525714367628e-05</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.373531948762775e-08</v>
+        <v>0.001465316512621939</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.096580331567566e-08</v>
+        <v>0.001809816691093147</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.455139653216975e-08</v>
+        <v>0.0007660477422177792</v>
       </c>
       <c r="AR12" t="n">
-        <v>7.324665318719781e-09</v>
+        <v>0.0007793403347022831</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.940790944094829e-09</v>
+        <v>0.00202295184135437</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.822728444902168e-08</v>
+        <v>0.001478311140090227</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.375856997919982e-08</v>
+        <v>0.003599780146032572</v>
       </c>
       <c r="AV12" t="n">
-        <v>3.392255720768844e-08</v>
+        <v>0.001126607763580978</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.049819762348307e-08</v>
+        <v>0.001957912929356098</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.233512752525257e-08</v>
+        <v>0.008572214283049107</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.733620891286591e-08</v>
+        <v>0.008154243230819702</v>
       </c>
       <c r="AZ12" t="n">
-        <v>6.60497256887993e-09</v>
+        <v>0.001821564044803381</v>
       </c>
       <c r="BA12" t="n">
-        <v>7.379439281862687e-10</v>
+        <v>0.0004241804126650095</v>
       </c>
       <c r="BB12" t="n">
-        <v>3.548176863432673e-08</v>
+        <v>0.004654801916331053</v>
       </c>
       <c r="BC12" t="n">
-        <v>2.698856249594428e-08</v>
+        <v>0.002016382990404963</v>
       </c>
       <c r="BD12" t="n">
-        <v>3.795421310570646e-09</v>
+        <v>9.562727063894272e-05</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.143412031723301e-08</v>
+        <v>0.001012630062177777</v>
       </c>
       <c r="BF12" t="n">
-        <v>2.022670919643588e-08</v>
+        <v>0.002909631701186299</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.912964009420648e-08</v>
+        <v>0.004018944222480059</v>
       </c>
       <c r="BH12" t="n">
-        <v>2.6155579035958e-08</v>
+        <v>0.0023557273671031</v>
       </c>
       <c r="BI12" t="n">
-        <v>2.497543327706353e-08</v>
+        <v>7.920281495898962e-05</v>
       </c>
       <c r="BJ12" t="n">
-        <v>6.595777701789984e-09</v>
+        <v>0.001121789682656527</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.204486110850667e-08</v>
+        <v>0.0008071048650890589</v>
       </c>
       <c r="BL12" t="n">
-        <v>3.205497201008711e-09</v>
+        <v>0.0005419165827333927</v>
       </c>
       <c r="BM12" t="n">
-        <v>3.999713271696237e-08</v>
+        <v>0.002681654645130038</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.607113730983656e-08</v>
+        <v>0.0005168198840692639</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.100003022003193e-08</v>
+        <v>0.00102940876968205</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.598797982893529e-09</v>
+        <v>0.0008628782816231251</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.445609676409276e-08</v>
+        <v>0.001679371576756239</v>
       </c>
       <c r="BR12" t="n">
-        <v>7.767840592975972e-09</v>
+        <v>0.002063460648059845</v>
       </c>
       <c r="BS12" t="n">
-        <v>9.634497644128714e-09</v>
+        <v>0.002884875982999802</v>
       </c>
       <c r="BT12" t="n">
-        <v>8.906841486577832e-09</v>
+        <v>0.003448442323133349</v>
       </c>
       <c r="BU12" t="n">
-        <v>3.081432708995635e-08</v>
+        <v>0.0009984583593904972</v>
       </c>
       <c r="BV12" t="n">
-        <v>4.401736752868146e-10</v>
+        <v>0.002958435565233231</v>
       </c>
       <c r="BW12" t="n">
-        <v>1.812388461530645e-09</v>
+        <v>0.0006182579090818763</v>
       </c>
       <c r="BX12" t="n">
-        <v>6.119800133319586e-08</v>
+        <v>0.001721753971651196</v>
       </c>
       <c r="BY12" t="n">
-        <v>2.183975311709219e-08</v>
+        <v>0.002960184589028358</v>
       </c>
       <c r="BZ12" t="n">
-        <v>1.75463987783786e-09</v>
+        <v>0.002192876534536481</v>
       </c>
       <c r="CA12" t="n">
-        <v>1.198663923673848e-08</v>
+        <v>0.001422021188773215</v>
       </c>
       <c r="CB12" t="n">
-        <v>2.208288663041458e-08</v>
+        <v>0.00169875961728394</v>
       </c>
       <c r="CC12" t="n">
-        <v>3.40324994851926e-08</v>
+        <v>0.001643220661208034</v>
       </c>
       <c r="CD12" t="n">
-        <v>2.514832608824236e-08</v>
+        <v>2.48250798904337e-05</v>
       </c>
       <c r="CE12" t="n">
-        <v>1.666050764015381e-08</v>
+        <v>0.0008317249594256282</v>
       </c>
       <c r="CF12" t="n">
-        <v>5.845132822202004e-09</v>
+        <v>9.810124174691737e-05</v>
       </c>
       <c r="CG12" t="n">
-        <v>2.530573439685213e-08</v>
+        <v>0.00101996585726738</v>
       </c>
       <c r="CH12" t="n">
-        <v>3.968744444193817e-09</v>
+        <v>0.0007613170892000198</v>
       </c>
       <c r="CI12" t="n">
-        <v>9.251295729484355e-09</v>
+        <v>0.002153601963073015</v>
       </c>
       <c r="CJ12" t="n">
-        <v>6.721019740751899e-09</v>
+        <v>2.87714647129178e-06</v>
       </c>
       <c r="CK12" t="n">
-        <v>3.963943839835338e-09</v>
+        <v>0.0006327569717541337</v>
       </c>
       <c r="CL12" t="n">
-        <v>6.475105784886637e-09</v>
+        <v>0.0002789022400975227</v>
       </c>
       <c r="CM12" t="n">
-        <v>3.256972691545457e-09</v>
+        <v>0.0005906597943976521</v>
       </c>
       <c r="CN12" t="n">
-        <v>8.339969603810005e-09</v>
+        <v>0.001036567962728441</v>
       </c>
       <c r="CO12" t="n">
-        <v>1.831265805662952e-08</v>
+        <v>0.000805865740403533</v>
       </c>
       <c r="CP12" t="n">
-        <v>3.515074453730449e-09</v>
+        <v>0.001838029711507261</v>
       </c>
       <c r="CQ12" t="n">
-        <v>2.750671335149946e-08</v>
+        <v>0.007124037947505713</v>
       </c>
       <c r="CR12" t="n">
-        <v>6.180682277090455e-08</v>
+        <v>0.0002381883532507345</v>
       </c>
       <c r="CS12" t="n">
-        <v>6.833799304217791e-09</v>
+        <v>0.0006669432041235268</v>
       </c>
       <c r="CT12" t="n">
-        <v>2.464820347825025e-08</v>
+        <v>0.001556092174723744</v>
       </c>
       <c r="CU12" t="n">
-        <v>6.150856712849873e-09</v>
+        <v>0.001479614060372114</v>
       </c>
       <c r="CV12" t="n">
-        <v>2.646411090267975e-08</v>
+        <v>0.0001946678967215121</v>
       </c>
       <c r="CW12" t="n">
-        <v>1.893208967373994e-08</v>
+        <v>0.0006496383575722575</v>
       </c>
       <c r="CX12" t="n">
-        <v>5.299116700996365e-11</v>
+        <v>0.0001804919156711549</v>
       </c>
       <c r="CY12" t="n">
-        <v>2.692960343608775e-08</v>
+        <v>0.000810932251624763</v>
       </c>
       <c r="CZ12" t="n">
-        <v>2.699661827421096e-09</v>
+        <v>0.001404737704433501</v>
       </c>
       <c r="DA12" t="n">
-        <v>8.24627033324532e-09</v>
+        <v>0.002563269808888435</v>
       </c>
       <c r="DB12" t="n">
-        <v>3.070458998166714e-09</v>
+        <v>0.000103499332908541</v>
       </c>
       <c r="DC12" t="n">
-        <v>6.114117212518977e-09</v>
+        <v>0.001731376512907445</v>
       </c>
       <c r="DD12" t="n">
-        <v>7.815495806084982e-09</v>
+        <v>0.0005243148771114647</v>
       </c>
       <c r="DE12" t="n">
-        <v>1.815933359239352e-08</v>
+        <v>0.001023626187816262</v>
       </c>
       <c r="DF12" t="n">
-        <v>3.364695544405549e-08</v>
+        <v>0.004486342426389456</v>
       </c>
       <c r="DG12" t="n">
-        <v>1.507052260762975e-08</v>
+        <v>0.0005128034972585738</v>
       </c>
       <c r="DH12" t="n">
-        <v>2.026938084043195e-08</v>
+        <v>0.0007493089069612324</v>
       </c>
       <c r="DI12" t="n">
-        <v>1.34580133703821e-08</v>
+        <v>0.006693176925182343</v>
       </c>
       <c r="DJ12" t="n">
-        <v>3.398314873948038e-08</v>
+        <v>0.005339718423783779</v>
       </c>
       <c r="DK12" t="n">
-        <v>3.867832720771958e-09</v>
+        <v>0.0001421987835783511</v>
       </c>
       <c r="DL12" t="n">
-        <v>3.681346427697463e-08</v>
+        <v>0.003099414287135005</v>
       </c>
       <c r="DM12" t="n">
-        <v>3.919470970004113e-09</v>
+        <v>0.00528778787702322</v>
       </c>
       <c r="DN12" t="n">
-        <v>1.863123344492124e-08</v>
+        <v>0.00126217445358634</v>
       </c>
       <c r="DO12" t="n">
-        <v>3.750932897617076e-09</v>
+        <v>7.71332997828722e-05</v>
       </c>
       <c r="DP12" t="n">
-        <v>8.922640404307458e-11</v>
+        <v>0.0004783680778928101</v>
       </c>
       <c r="DQ12" t="n">
-        <v>3.852619112620914e-09</v>
+        <v>0.00353735638782382</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.161758800272139e-09</v>
+        <v>0.0003879455907735974</v>
       </c>
       <c r="DS12" t="n">
-        <v>7.467744644884533e-09</v>
+        <v>0.001393724232912064</v>
       </c>
       <c r="DT12" t="n">
-        <v>6.388203743767917e-09</v>
+        <v>0.0007198357488960028</v>
       </c>
       <c r="DU12" t="n">
-        <v>1.520517400876997e-08</v>
+        <v>0.0009658436756581068</v>
       </c>
       <c r="DV12" t="n">
-        <v>3.485847699380429e-08</v>
+        <v>0.001319126575253904</v>
       </c>
       <c r="DW12" t="n">
-        <v>5.546903381059565e-09</v>
+        <v>0.0001469035050831735</v>
       </c>
       <c r="DX12" t="n">
-        <v>1.495726742462011e-08</v>
+        <v>0.0005308557883836329</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.321104647900029e-08</v>
+        <v>0.0003144369984511286</v>
       </c>
       <c r="DZ12" t="n">
-        <v>1.878488831152936e-08</v>
+        <v>0.001297846203669906</v>
       </c>
       <c r="EA12" t="n">
-        <v>1.215306966173557e-08</v>
+        <v>0.001286526909098029</v>
       </c>
       <c r="EB12" t="n">
-        <v>5.907021538575918e-09</v>
+        <v>0.001729559502564371</v>
       </c>
       <c r="EC12" t="n">
-        <v>1.123033666061701e-09</v>
+        <v>0.0007634381763637066</v>
       </c>
       <c r="ED12" t="n">
-        <v>9.217724361576529e-09</v>
+        <v>0.002656960859894753</v>
       </c>
       <c r="EE12" t="n">
-        <v>1.921560510709241e-08</v>
+        <v>0.002095867414027452</v>
       </c>
       <c r="EF12" t="n">
-        <v>1.069210142645716e-08</v>
+        <v>0.0003931000246666372</v>
       </c>
       <c r="EG12" t="n">
-        <v>1.513397585028997e-08</v>
+        <v>0.0002935898955911398</v>
       </c>
       <c r="EH12" t="n">
-        <v>1.399588001049779e-08</v>
+        <v>0.001446903916075826</v>
       </c>
       <c r="EI12" t="n">
-        <v>5.316512741160295e-08</v>
+        <v>0.001196153811179101</v>
       </c>
       <c r="EJ12" t="n">
-        <v>3.116774394129607e-08</v>
+        <v>0.001419912790879607</v>
       </c>
       <c r="EK12" t="n">
-        <v>1.773962310380739e-08</v>
+        <v>0.002090467605739832</v>
       </c>
       <c r="EL12" t="n">
-        <v>1.19356400318793e-08</v>
+        <v>7.105118129402399e-06</v>
       </c>
       <c r="EM12" t="n">
-        <v>5.199348507289869e-09</v>
+        <v>0.0009172726422548294</v>
       </c>
       <c r="EN12" t="n">
-        <v>4.502080042101397e-09</v>
+        <v>0.0006966436631046236</v>
       </c>
       <c r="EO12" t="n">
-        <v>7.67981944704843e-09</v>
+        <v>0.0002547458279877901</v>
       </c>
       <c r="EP12" t="n">
-        <v>7.75540609510017e-09</v>
+        <v>0.001796371536329389</v>
       </c>
       <c r="EQ12" t="n">
-        <v>1.291964757399455e-08</v>
+        <v>0.0007265542517416179</v>
       </c>
       <c r="ER12" t="n">
-        <v>3.465331133156724e-09</v>
+        <v>0.001747218542732298</v>
       </c>
       <c r="ES12" t="n">
-        <v>2.000281895675471e-08</v>
+        <v>0.0006262205424718559</v>
       </c>
       <c r="ET12" t="n">
-        <v>6.624413018130326e-09</v>
+        <v>0.0008350269636139274</v>
       </c>
       <c r="EU12" t="n">
-        <v>7.801964407860851e-09</v>
+        <v>0.0001978347427211702</v>
       </c>
       <c r="EV12" t="n">
-        <v>1.497930846028339e-08</v>
+        <v>0.003415639046579599</v>
       </c>
       <c r="EW12" t="n">
-        <v>9.152438806836471e-10</v>
+        <v>0.0005415609921328723</v>
       </c>
       <c r="EX12" t="n">
-        <v>2.012936661799358e-08</v>
+        <v>0.0002235042629763484</v>
       </c>
       <c r="EY12" t="n">
-        <v>1.549993022820217e-08</v>
+        <v>0.0008135493262670934</v>
       </c>
       <c r="EZ12" t="n">
-        <v>3.656785985128863e-11</v>
+        <v>4.793796688318253e-05</v>
       </c>
       <c r="FA12" t="n">
-        <v>2.550394384570609e-08</v>
+        <v>0.001173214055597782</v>
       </c>
       <c r="FB12" t="n">
-        <v>3.036294549119134e-10</v>
+        <v>0.001169166644103825</v>
       </c>
       <c r="FC12" t="n">
-        <v>6.902879157166808e-09</v>
+        <v>0.00218989560380578</v>
       </c>
       <c r="FD12" t="n">
-        <v>6.647613126631313e-09</v>
+        <v>0.0001442354987375438</v>
       </c>
       <c r="FE12" t="n">
-        <v>1.258046999907947e-10</v>
+        <v>0.001569155603647232</v>
       </c>
       <c r="FF12" t="n">
-        <v>4.286679455844933e-09</v>
+        <v>8.239247836172581e-05</v>
       </c>
       <c r="FG12" t="n">
-        <v>3.637819290247535e-08</v>
+        <v>0.001162738422863185</v>
       </c>
       <c r="FH12" t="n">
-        <v>1.228581414380869e-08</v>
+        <v>0.001098834327422082</v>
       </c>
       <c r="FI12" t="n">
-        <v>1.336627697412496e-08</v>
+        <v>0.001469171838834882</v>
       </c>
       <c r="FJ12" t="n">
-        <v>1.463190457684505e-08</v>
+        <v>0.001398083288222551</v>
       </c>
       <c r="FK12" t="n">
-        <v>5.185398332940849e-09</v>
+        <v>0.0001885098754428327</v>
       </c>
       <c r="FL12" t="n">
-        <v>2.989146707932377e-08</v>
+        <v>0.003067117650061846</v>
       </c>
       <c r="FM12" t="n">
-        <v>4.170009226811544e-09</v>
+        <v>8.584058377891779e-05</v>
       </c>
       <c r="FN12" t="n">
-        <v>1.44290206449682e-08</v>
+        <v>0.001948464778251946</v>
       </c>
       <c r="FO12" t="n">
-        <v>2.454965342124638e-09</v>
+        <v>0.001634131884202361</v>
       </c>
       <c r="FP12" t="n">
-        <v>2.293037937306508e-08</v>
+        <v>0.001023975084535778</v>
       </c>
       <c r="FQ12" t="n">
-        <v>2.24734399978388e-08</v>
+        <v>0.0003582086064852774</v>
       </c>
       <c r="FR12" t="n">
-        <v>1.71920042646434e-08</v>
+        <v>0.001161565305665135</v>
       </c>
       <c r="FS12" t="n">
-        <v>1.586527531571846e-08</v>
+        <v>0.00110203621443361</v>
       </c>
       <c r="FT12" t="n">
-        <v>9.929677524667113e-09</v>
+        <v>0.005400058813393116</v>
       </c>
       <c r="FU12" t="n">
-        <v>2.080390792968956e-08</v>
+        <v>0.002072364324703813</v>
       </c>
       <c r="FV12" t="n">
-        <v>2.80987300094182e-09</v>
+        <v>0.004032217897474766</v>
       </c>
       <c r="FW12" t="n">
-        <v>1.636927038362046e-09</v>
+        <v>0.002610608702525496</v>
       </c>
       <c r="FX12" t="n">
-        <v>1.779343561381097e-09</v>
+        <v>0.0005592647939920425</v>
       </c>
       <c r="FY12" t="n">
-        <v>2.906566010096867e-08</v>
+        <v>0.0009424739400856197</v>
       </c>
       <c r="FZ12" t="n">
-        <v>3.882339072447394e-08</v>
+        <v>0.000408442021580413</v>
       </c>
       <c r="GA12" t="n">
-        <v>1.238022395710914e-08</v>
+        <v>0.0004953608149662614</v>
       </c>
       <c r="GB12" t="n">
-        <v>1.520948877953288e-08</v>
+        <v>0.000512055354192853</v>
       </c>
       <c r="GC12" t="n">
-        <v>1.156971229931969e-08</v>
+        <v>0.0044148163869977</v>
       </c>
       <c r="GD12" t="n">
-        <v>4.819887600149286e-09</v>
+        <v>0.000165400342666544</v>
       </c>
       <c r="GE12" t="n">
-        <v>1.707161523256673e-08</v>
+        <v>0.003190449438989162</v>
       </c>
       <c r="GF12" t="n">
-        <v>2.487383987670455e-08</v>
+        <v>0.00232623191550374</v>
       </c>
       <c r="GG12" t="n">
-        <v>6.127489182716772e-09</v>
+        <v>0.0001482957741245627</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1921312510967255</v>
+        <v>0.003918584436178207</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01220341864973307</v>
+        <v>0.003133135614916682</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07976290583610535</v>
+        <v>0.01415512524545193</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05198629945516586</v>
+        <v>0.019562603905797</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07893163710832596</v>
+        <v>0.003642264753580093</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003082175506278872</v>
+        <v>0.02221365831792355</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000928669236600399</v>
+        <v>0.007424471899867058</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04123077541589737</v>
+        <v>0.002668123226612806</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005605882033705711</v>
+        <v>0.002950394060462713</v>
       </c>
       <c r="J13" t="n">
-        <v>0.176681861281395</v>
+        <v>0.002089232672005892</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01643510907888412</v>
+        <v>0.003960149362683296</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1403175294399261</v>
+        <v>0.01519465539604425</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03401597961783409</v>
+        <v>0.01293805241584778</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02384438179433346</v>
+        <v>0.0008849054574966431</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01742750592529774</v>
+        <v>0.022759810090065</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0638665035367012</v>
+        <v>0.006603357382118702</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.03116115555167198</v>
+        <v>0.006590785458683968</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04770936816930771</v>
+        <v>0.005841863341629505</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01408571004867554</v>
+        <v>0.01061445847153664</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01603083312511444</v>
+        <v>0.007396182976663113</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02555147744715214</v>
+        <v>0.002829832024872303</v>
       </c>
       <c r="V13" t="n">
-        <v>0.003358002752065659</v>
+        <v>0.01292660180479288</v>
       </c>
       <c r="W13" t="n">
-        <v>0.05729856342077255</v>
+        <v>0.003987416625022888</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02649976871907711</v>
+        <v>0.0008329657721333206</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02310501411557198</v>
+        <v>0.004138280637562275</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.001757850171998143</v>
+        <v>0.002696259412914515</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05359770730137825</v>
+        <v>0.001947760116308928</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.005721146240830421</v>
+        <v>0.003248612862080336</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.009496193379163742</v>
+        <v>0.003237590659409761</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.05455152317881584</v>
+        <v>0.01059725694358349</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0137093011289835</v>
+        <v>0.005884456448256969</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.04016343504190445</v>
+        <v>0.004326246678829193</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.01733044348657131</v>
+        <v>0.005780849140137434</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.01618109457194805</v>
+        <v>0.002632215153425932</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0263059139251709</v>
+        <v>0.004388907924294472</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.005729101598262787</v>
+        <v>0.001397705171257257</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.04069570824503899</v>
+        <v>0.003572516376152635</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.07520538568496704</v>
+        <v>0.004528288263827562</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0005607297644019127</v>
+        <v>0.004141956102102995</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.01785196922719479</v>
+        <v>0.001861838856711984</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.003084560390561819</v>
+        <v>0.007817354053258896</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.03265463560819626</v>
+        <v>0.001280090538784862</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.009577322751283646</v>
+        <v>0.001933495746925473</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.03107394091784954</v>
+        <v>0.006118673365563154</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.003452303353697062</v>
+        <v>0.00255460967309773</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.09211182594299316</v>
+        <v>0.005598505493253469</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.05765197426080704</v>
+        <v>0.001459502498619258</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.06478369235992432</v>
+        <v>6.421690341085196e-05</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.02646605297923088</v>
+        <v>0.005212707445025444</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.008309647440910339</v>
+        <v>0.004661853890866041</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.06929242610931396</v>
+        <v>0.00636664405465126</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.03295577317476273</v>
+        <v>0.001159358769655228</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.009376071393489838</v>
+        <v>0.00232745916582644</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.07218201458454132</v>
+        <v>0.00608173618093133</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.02730301581323147</v>
+        <v>0.003886057529598475</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.01088243722915649</v>
+        <v>0.002243384253233671</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.036978580057621</v>
+        <v>8.893315680325031e-05</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.005297860130667686</v>
+        <v>0.0185413621366024</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.04031296819448471</v>
+        <v>0.008098111487925053</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.04925372824072838</v>
+        <v>0.01628564484417439</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.02227203547954559</v>
+        <v>0.002664881758391857</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.08484506607055664</v>
+        <v>0.004142305813729763</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.02940819412469864</v>
+        <v>0.00146503048017621</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.03947756439447403</v>
+        <v>0.003627421334385872</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.04036682471632957</v>
+        <v>0.00542882177978754</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.002965040504932404</v>
+        <v>0.008190546184778214</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.03080243431031704</v>
+        <v>0.001289074891246855</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.02263219468295574</v>
+        <v>0.001522341161035001</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.005806462839245796</v>
+        <v>0.001926948083564639</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.01857050880789757</v>
+        <v>0.002110392320901155</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.03729801997542381</v>
+        <v>0.003130599390715361</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.02032389864325523</v>
+        <v>0.0001488457346567884</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.08940790593624115</v>
+        <v>0.00247711269184947</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.06232493370771408</v>
+        <v>0.0006342035485431552</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.03318627551198006</v>
+        <v>0.004390322137624025</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.05124222487211227</v>
+        <v>0.0007375932764261961</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.01326672080904245</v>
+        <v>0.00354286003857851</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.007665656507015228</v>
+        <v>0.001927007106132805</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.02651774324476719</v>
+        <v>0.0004265924217179418</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.007822416722774506</v>
+        <v>0.001973070437088609</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.004905933979898691</v>
+        <v>0.004427488893270493</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.04181629791855812</v>
+        <v>0.003342550713568926</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.03696132078766823</v>
+        <v>0.001732739387080073</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.00701098283752799</v>
+        <v>0.001061938935890794</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0001253532245755196</v>
+        <v>0.001607222249731421</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.00635196128860116</v>
+        <v>0.0004003855283372104</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.005737645085901022</v>
+        <v>0.003966711927205324</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0124609088525176</v>
+        <v>0.0001727892959024757</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.008643552660942078</v>
+        <v>0.001854406320489943</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0009387840982526541</v>
+        <v>9.939794836100191e-05</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.02086219005286694</v>
+        <v>0.002739048795774579</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.02317629382014275</v>
+        <v>0.002715129172429442</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.02518371120095253</v>
+        <v>0.008887664414942265</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.002507372293621302</v>
+        <v>0.007134687621146441</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.02302723191678524</v>
+        <v>0.005940021015703678</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.01475209929049015</v>
+        <v>0.0004302753077354282</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.07224006205797195</v>
+        <v>0.004047164227813482</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.09593842178583145</v>
+        <v>0.000948071014136076</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.006746635306626558</v>
+        <v>0.0007030123379081488</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.04464500769972801</v>
+        <v>0.001956569962203503</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.03600729629397392</v>
+        <v>0.002778219990432262</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.01609249413013458</v>
+        <v>0.002283855341374874</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0006622698856517673</v>
+        <v>0.0005528684705495834</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.03038569539785385</v>
+        <v>0.00110441236756742</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.009930927306413651</v>
+        <v>0.003877331735566258</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.005406569223850965</v>
+        <v>0.002685952465981245</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.008151154965162277</v>
+        <v>0.0007264155428856611</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.002133815316483378</v>
+        <v>0.0004153039772063494</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.01962285861372948</v>
+        <v>0.001066678087227046</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.08535139262676239</v>
+        <v>0.02121216058731079</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0110846646130085</v>
+        <v>0.001276463503018022</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.02768218889832497</v>
+        <v>0.006804664619266987</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.01083876844495535</v>
+        <v>0.01287886779755354</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.02029104717075825</v>
+        <v>0.008179905824363232</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.02172291837632656</v>
+        <v>0.005018026567995548</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.01385002955794334</v>
+        <v>0.009327913634479046</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.01422534696757793</v>
+        <v>0.001344147836789489</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.007719539105892181</v>
+        <v>0.0137226702645421</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.05865949764847755</v>
+        <v>0.0008229367667809129</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.01781174167990685</v>
+        <v>0.006457806564867496</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.01076716743409634</v>
+        <v>0.004067694768309593</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.01607032679021358</v>
+        <v>0.002039657672867179</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.009071260690689087</v>
+        <v>0.007080331444740295</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.06695491820573807</v>
+        <v>0.001715757651254535</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.04015040025115013</v>
+        <v>0.0037336191162467</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.01199876889586449</v>
+        <v>0.001084549934603274</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.001742120832204819</v>
+        <v>0.004908168222755194</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.02342367731034756</v>
+        <v>0.02464692108333111</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.04078669846057892</v>
+        <v>0.007465443108230829</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.009429793804883957</v>
+        <v>0.01257990207523108</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.05136441439390182</v>
+        <v>0.001628139056265354</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.02099849097430706</v>
+        <v>0.003209635382518172</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.04103695228695869</v>
+        <v>0.00230703130364418</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.005257731303572655</v>
+        <v>0.0009538247250020504</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.02646586112678051</v>
+        <v>0.001815774827264249</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.07140401005744934</v>
+        <v>0.002088617067784071</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.01809453405439854</v>
+        <v>0.01025893166661263</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.03023120947182178</v>
+        <v>0.002025652211159468</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.01297445595264435</v>
+        <v>0.005019388161599636</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0007509840652346611</v>
+        <v>0.001314898836426437</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.03981862589716911</v>
+        <v>0.001313319895416498</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.01800996996462345</v>
+        <v>0.001274355687201023</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.0179227851331234</v>
+        <v>0.001178267411887646</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.03396777808666229</v>
+        <v>0.0001477776095271111</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.02253102138638496</v>
+        <v>0.002721766941249371</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.008223236538469791</v>
+        <v>0.0001549198059365153</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0301043763756752</v>
+        <v>0.0005986508913338184</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.06416796892881393</v>
+        <v>0.002716937335208058</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.02161300927400589</v>
+        <v>0.01224332675337791</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0654035285115242</v>
+        <v>0.007919860072433949</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.008347626775503159</v>
+        <v>0.006455228198319674</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.01508049760013819</v>
+        <v>0.001056237844750285</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.00411674752831459</v>
+        <v>0.003666643286123872</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.04151810705661774</v>
+        <v>0.001850848668254912</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0333477146923542</v>
+        <v>0.003113891929388046</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.01457298174500465</v>
+        <v>0.0011814353056252</v>
       </c>
       <c r="FA13" t="n">
-        <v>2.403906546533108e-05</v>
+        <v>0.002852409379556775</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.01794116944074631</v>
+        <v>0.001150736934505403</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0006735382485203445</v>
+        <v>0.002448272425681353</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.01500233728438616</v>
+        <v>0.001619764254428446</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.01413861289620399</v>
+        <v>0.0005103508592583239</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.005802544765174389</v>
+        <v>0.0005991318030282855</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.04170376062393188</v>
+        <v>0.002760199131444097</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.02182753942906857</v>
+        <v>0.009203435853123665</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0201498456299305</v>
+        <v>0.007242041174322367</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.05429784953594208</v>
+        <v>0.01433678157627583</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.04171769693493843</v>
+        <v>0.01280803792178631</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.03642380237579346</v>
+        <v>0.0002055608783848584</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.009347932413220406</v>
+        <v>0.0007462679641321301</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.02190061844885349</v>
+        <v>0.0006299159722402692</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.02571162395179272</v>
+        <v>0.003637817222625017</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.04975714161992073</v>
+        <v>0.00809883140027523</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.09373713284730911</v>
+        <v>0.005517551675438881</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.006375797558575869</v>
+        <v>0.002529787365347147</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.04033428430557251</v>
+        <v>0.01758472248911858</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.04266319423913956</v>
+        <v>0.006908087059855461</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.006569829303771257</v>
+        <v>0.003440923988819122</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.03283184394240379</v>
+        <v>0.007597809191793203</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.09463490545749664</v>
+        <v>0.005597683601081371</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.004036371130496264</v>
+        <v>0.003860468976199627</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0305912010371685</v>
+        <v>0.007990950718522072</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.01190334558486938</v>
+        <v>0.005885064136236906</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.01958969235420227</v>
+        <v>0.009608995169401169</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0001124830450862646</v>
+        <v>0.004182711243629456</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.009201459586620331</v>
+        <v>0.003591064130887389</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.01292860042303801</v>
+        <v>0.005280090495944023</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.03561508283019066</v>
+        <v>0.002758032409474254</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.007323120255023241</v>
+        <v>0.002596348058432341</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.02227634005248547</v>
+        <v>0.001048673642799258</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1575825959444046</v>
+        <v>0.09575828164815903</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04158109053969383</v>
+        <v>0.8400170803070068</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02833464182913303</v>
+        <v>0.1588525474071503</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2858443558216095</v>
+        <v>0.5491570234298706</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2260049879550934</v>
+        <v>0.2205322235822678</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1194334179162979</v>
+        <v>0.3527843654155731</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2446936219930649</v>
+        <v>0.1285267770290375</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09563027322292328</v>
+        <v>0.1554934233427048</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2376224845647812</v>
+        <v>0.1439215093851089</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1388829499483109</v>
+        <v>0.2956879734992981</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03731220960617065</v>
+        <v>0.6197012066841125</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02056541666388512</v>
+        <v>0.07371455430984497</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2701658308506012</v>
+        <v>0.6152036190032959</v>
       </c>
       <c r="N14" t="n">
-        <v>0.201432541012764</v>
+        <v>0.3429746627807617</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08978109061717987</v>
+        <v>0.4265504777431488</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06817666441202164</v>
+        <v>0.01124773919582367</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01643703877925873</v>
+        <v>0.06415753066539764</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1513246148824692</v>
+        <v>0.1669155806303024</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01586117967963219</v>
+        <v>0.1061752587556839</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01590386964380741</v>
+        <v>0.06538458168506622</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0006023207679390907</v>
+        <v>0.1147476956248283</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06183382868766785</v>
+        <v>0.1430931687355042</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1529702097177505</v>
+        <v>0.05039109289646149</v>
       </c>
       <c r="X14" t="n">
-        <v>0.06424004584550858</v>
+        <v>0.03740039840340614</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.06866191327571869</v>
+        <v>0.03723590075969696</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.07260219007730484</v>
+        <v>0.1210408732295036</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.06095971539616585</v>
+        <v>0.1369233280420303</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.1297493875026703</v>
+        <v>0.03959403187036514</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02219177968800068</v>
+        <v>0.06930236518383026</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.05056564509868622</v>
+        <v>0.02150539308786392</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1011937111616135</v>
+        <v>0.02534018829464912</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1587373018264771</v>
+        <v>0.2095065414905548</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.08599997311830521</v>
+        <v>0.0008885711431503296</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.003379948437213898</v>
+        <v>0.009716544300317764</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.07371825724840164</v>
+        <v>0.09900028258562088</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.05096866190433502</v>
+        <v>0.07216356694698334</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.05739633738994598</v>
+        <v>0.04251645132899284</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.01645126566290855</v>
+        <v>0.1887477785348892</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.00547933392226696</v>
+        <v>0.03205153718590736</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.06941788643598557</v>
+        <v>0.03246687352657318</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.009976713918149471</v>
+        <v>0.08765473961830139</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.1539936065673828</v>
+        <v>0.049492247402668</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.06843980401754379</v>
+        <v>0.03025191649794579</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.08427298814058304</v>
+        <v>0.04583951085805893</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.00209129648283124</v>
+        <v>0.1555787175893784</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.03954380005598068</v>
+        <v>0.02287248522043228</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.126638799905777</v>
+        <v>0.5106543302536011</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.07123979181051254</v>
+        <v>0.106087826192379</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.0009683594107627869</v>
+        <v>0.06374975293874741</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.1947290301322937</v>
+        <v>0.05145777016878128</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.07517862319946289</v>
+        <v>0.1364531666040421</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.008477106690406799</v>
+        <v>0.06259088963270187</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.2651111483573914</v>
+        <v>0.03025072067975998</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.1299237459897995</v>
+        <v>0.1863028407096863</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.09646297246217728</v>
+        <v>0.1073637306690216</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.1757410317659378</v>
+        <v>0.1195703819394112</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.02573456615209579</v>
+        <v>0.1996055841445923</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.2218413203954697</v>
+        <v>0.2892915606498718</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.03209245949983597</v>
+        <v>0.3795473575592041</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.1703712344169617</v>
+        <v>0.1980038285255432</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.1456567347049713</v>
+        <v>0.09775115549564362</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.007179704494774342</v>
+        <v>0.008646131493151188</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.05195331200957298</v>
+        <v>0.06240233778953552</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.009162580594420433</v>
+        <v>0.03797884285449982</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.001589754945598543</v>
+        <v>0.01466770470142365</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.0777822732925415</v>
+        <v>0.1636225134134293</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.1380709856748581</v>
+        <v>0.05208254605531693</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.07992134988307953</v>
+        <v>0.06575548648834229</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.09287652373313904</v>
+        <v>0.01985964551568031</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.0500306710600853</v>
+        <v>0.1780277788639069</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.1609970033168793</v>
+        <v>0.08850645273923874</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.1279118955135345</v>
+        <v>0.06190377101302147</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.07654345780611038</v>
+        <v>0.03077055141329765</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.002273985650390387</v>
+        <v>0.2760381400585175</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.02426302246749401</v>
+        <v>0.1902031302452087</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.01335401087999344</v>
+        <v>0.1452119648456573</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.1892346143722534</v>
+        <v>0.02607238106429577</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.099549800157547</v>
+        <v>0.05785733833909035</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.03976653143763542</v>
+        <v>0.04966564476490021</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.04779655858874321</v>
+        <v>0.07205656915903091</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.05609975010156631</v>
+        <v>0.1785668879747391</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.0914936438202858</v>
+        <v>0.01675737462937832</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.0257480051368475</v>
+        <v>0.1417198181152344</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.02570066042244434</v>
+        <v>0.1151237785816193</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.0896676704287529</v>
+        <v>0.1117193251848221</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.02101825550198555</v>
+        <v>0.02335364557802677</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.06978648155927658</v>
+        <v>0.05984263494610786</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.1010918170213699</v>
+        <v>0.04575126990675926</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.06058186292648315</v>
+        <v>0.006384721957147121</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.02489742636680603</v>
+        <v>0.05580136924982071</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.01031036302447319</v>
+        <v>0.06031669676303864</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.1337172091007233</v>
+        <v>0.00672616995871067</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.01008038409054279</v>
+        <v>0.02253947779536247</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.03191838786005974</v>
+        <v>0.03449822589755058</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.06532610207796097</v>
+        <v>0.09499835222959518</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.04433367028832436</v>
+        <v>0.09182705730199814</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.008423926308751106</v>
+        <v>0.1446055620908737</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.1901684999465942</v>
+        <v>0.03856397420167923</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.01924571022391319</v>
+        <v>0.004286863375455141</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.06329681724309921</v>
+        <v>0.008081952109932899</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.03052167594432831</v>
+        <v>0.1290197670459747</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.03874124959111214</v>
+        <v>0.1095755249261856</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.06457063555717468</v>
+        <v>0.09873086959123611</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.01384989824146032</v>
+        <v>0.03079771809279919</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.06392447650432587</v>
+        <v>0.05874502658843994</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.09973833709955215</v>
+        <v>0.0527433380484581</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.05271574854850769</v>
+        <v>0.06298349052667618</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.02445811219513416</v>
+        <v>0.0161886103451252</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.1564351916313171</v>
+        <v>0.08664285391569138</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.09648360311985016</v>
+        <v>0.08279800415039062</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.01867543160915375</v>
+        <v>0.1108995750546455</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.08619493991136551</v>
+        <v>0.258621871471405</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.1141388267278671</v>
+        <v>0.1845713108778</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.09552380442619324</v>
+        <v>0.05003070831298828</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.2700480818748474</v>
+        <v>0.1150714978575706</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.07560873031616211</v>
+        <v>0.01267694309353828</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.01012035086750984</v>
+        <v>0.06395381689071655</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.06875960528850555</v>
+        <v>0.005216173827648163</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.0928327739238739</v>
+        <v>0.03011488169431686</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.01708043366670609</v>
+        <v>0.00396111560985446</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.08481646329164505</v>
+        <v>0.1728250086307526</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.1177977845072746</v>
+        <v>0.005662189330905676</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.1035154014825821</v>
+        <v>0.02447863668203354</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.1034025475382805</v>
+        <v>0.01332390215247869</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.005347263067960739</v>
+        <v>0.002515422645956278</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.04312994703650475</v>
+        <v>0.119436502456665</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.07187198847532272</v>
+        <v>0.03245440870523453</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.02421452663838863</v>
+        <v>0.01653187721967697</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.008601181209087372</v>
+        <v>0.08456486463546753</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.03158129751682281</v>
+        <v>0.03257955238223076</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.007685793563723564</v>
+        <v>0.08182398974895477</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.05226032808423042</v>
+        <v>0.08585488051176071</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.1571459174156189</v>
+        <v>0.05386181548237801</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.05086688697338104</v>
+        <v>0.1078047826886177</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.194711372256279</v>
+        <v>0.04229617118835449</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.01128640957176685</v>
+        <v>0.001789471134543419</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.008054041303694248</v>
+        <v>0.1114887744188309</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.06850132346153259</v>
+        <v>0.117322638630867</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.02679041028022766</v>
+        <v>0.02873409166932106</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.01107413321733475</v>
+        <v>0.09739670902490616</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.1272408962249756</v>
+        <v>0.0499817356467247</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.09450577944517136</v>
+        <v>0.04494673386216164</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.0380503386259079</v>
+        <v>0.02597007155418396</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.0625174269080162</v>
+        <v>0.01332031097263098</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.01770572178065777</v>
+        <v>0.006070874631404877</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.08613701909780502</v>
+        <v>0.06530147045850754</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.005789227318018675</v>
+        <v>0.1947762370109558</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.06270916759967804</v>
+        <v>0.06305835396051407</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.2080593705177307</v>
+        <v>0.111690454185009</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.110212579369545</v>
+        <v>0.1186866164207458</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.02119429036974907</v>
+        <v>0.1337152421474457</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.09376749396324158</v>
+        <v>0.09328778833150864</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.1290755569934845</v>
+        <v>0.02243904396891594</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.06868593394756317</v>
+        <v>0.00204090029001236</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.01641655899584293</v>
+        <v>0.1397095918655396</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.03641722351312637</v>
+        <v>0.1042788475751877</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.07146554440259933</v>
+        <v>0.1113039329648018</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.01889085955917835</v>
+        <v>0.03124046698212624</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.02234920859336853</v>
+        <v>0.05430343002080917</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.05672270804643631</v>
+        <v>0.0921737477183342</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.0448896624147892</v>
+        <v>0.06249852478504181</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.0181400403380394</v>
+        <v>0.06539703905582428</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.05111053213477135</v>
+        <v>0.03966537117958069</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.07718811929225922</v>
+        <v>0.1607799082994461</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.02590633928775787</v>
+        <v>0.0601375475525856</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.02074559032917023</v>
+        <v>0.03813791647553444</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.1217071861028671</v>
+        <v>0.02160938829183578</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.1125219613313675</v>
+        <v>0.1499838083982468</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.09115280210971832</v>
+        <v>0.05209777504205704</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.1697683185338974</v>
+        <v>0.02250736579298973</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.07290343940258026</v>
+        <v>0.04054407030344009</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.08621281385421753</v>
+        <v>0.06752914190292358</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.2411475628614426</v>
+        <v>0.1389549076557159</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.04845942929387093</v>
+        <v>0.1385210901498795</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.2669752836227417</v>
+        <v>0.1653237491846085</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.1203799396753311</v>
+        <v>0.2445452362298965</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.09422163665294647</v>
+        <v>0.02830005064606667</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.08615324646234512</v>
+        <v>0.2104249596595764</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.1245425939559937</v>
+        <v>0.066806361079216</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.1401297152042389</v>
+        <v>0.04006318747997284</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.03187733888626099</v>
+        <v>0.1000275611877441</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.05976426228880882</v>
+        <v>0.02537157200276852</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.05650576949119568</v>
+        <v>0.02851364761590958</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.01176781766116619</v>
+        <v>0.007236897945404053</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.01882207579910755</v>
+        <v>0.04790054261684418</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.1176840141415596</v>
+        <v>0.04164012894034386</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.1215124279260635</v>
+        <v>0.3640821874141693</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.05063588172197342</v>
+        <v>0.01959604397416115</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.1328267902135849</v>
+        <v>0.002577833831310272</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.009117879904806614</v>
+        <v>1.351665616035461</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003664338728412986</v>
+        <v>0.1124425604939461</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002079745754599571</v>
+        <v>0.09681613743305206</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01356328837573528</v>
+        <v>0.04800417274236679</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008473766036331654</v>
+        <v>0.3430074751377106</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003327259328216314</v>
+        <v>0.2523003816604614</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000645517953671515</v>
+        <v>0.325963169336319</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003193281590938568</v>
+        <v>0.0281255841255188</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001065032556653023</v>
+        <v>0.09392911940813065</v>
       </c>
       <c r="J15" t="n">
-        <v>0.008427314460277557</v>
+        <v>1.258069515228271</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0006009002099744976</v>
+        <v>0.1138424724340439</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005545672029256821</v>
+        <v>0.1481779217720032</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01203081384301186</v>
+        <v>0.06247528642416</v>
       </c>
       <c r="N15" t="n">
-        <v>0.009742640890181065</v>
+        <v>0.2390447705984116</v>
       </c>
       <c r="O15" t="n">
-        <v>0.009559299796819687</v>
+        <v>0.06344707310199738</v>
       </c>
       <c r="P15" t="n">
-        <v>0.00372768915258348</v>
+        <v>0.375659316778183</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.005644637625664473</v>
+        <v>0.01808196492493153</v>
       </c>
       <c r="R15" t="n">
-        <v>0.001120220171287656</v>
+        <v>0.2703655958175659</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0008885202696546912</v>
+        <v>0.05785190686583519</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0007586609572172165</v>
+        <v>0.2163133174180984</v>
       </c>
       <c r="U15" t="n">
-        <v>0.001274871174246073</v>
+        <v>0.0003900043666362762</v>
       </c>
       <c r="V15" t="n">
-        <v>0.003692179685458541</v>
+        <v>0.1741769313812256</v>
       </c>
       <c r="W15" t="n">
-        <v>0.001912484527565539</v>
+        <v>0.1189609840512276</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0009825192391872406</v>
+        <v>0.1375010311603546</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.020119715481997e-05</v>
+        <v>0.3321786522865295</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.002057245699688792</v>
+        <v>0.1819842755794525</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.002274215687066317</v>
+        <v>0.0001497024204581976</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0001544583356007934</v>
+        <v>0.04990203678607941</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.001586290309205651</v>
+        <v>0.1567436456680298</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.004141798242926598</v>
+        <v>0.1326968222856522</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.002031958661973476</v>
+        <v>0.1775731146335602</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.002147948369383812</v>
+        <v>0.03343863412737846</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0009006556356325746</v>
+        <v>0.253075897693634</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0001171511539723724</v>
+        <v>0.1762030571699142</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.002538405358791351</v>
+        <v>0.206537127494812</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.001430346048437059</v>
+        <v>0.2971609830856323</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.004237970802932978</v>
+        <v>0.1562360376119614</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.0001640324480831623</v>
+        <v>0.07020387798547745</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.001275294227525592</v>
+        <v>0.02349217981100082</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.004229963757097721</v>
+        <v>0.1027664542198181</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0007076854235492647</v>
+        <v>0.09140419960021973</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.002539579290896654</v>
+        <v>0.0304328165948391</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0004175340000074357</v>
+        <v>0.0678524449467659</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.002437034156173468</v>
+        <v>0.167547419667244</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.234675386920571e-05</v>
+        <v>0.01619167812168598</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.004196164198219776</v>
+        <v>0.6945375800132751</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.002794790780171752</v>
+        <v>0.06563349068164825</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.0006485701887868345</v>
+        <v>0.06446744501590729</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.006373204756528139</v>
+        <v>0.003194548189640045</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.001849317224696279</v>
+        <v>0.3713496923446655</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.002306288806721568</v>
+        <v>0.1094166487455368</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.004045091103762388</v>
+        <v>0.01128862425684929</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.003515422809869051</v>
+        <v>0.2012354731559753</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.0002652729162946343</v>
+        <v>0.08838313072919846</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.004081553779542446</v>
+        <v>0.4298698604106903</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.0005096672684885561</v>
+        <v>0.2855190336704254</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.003736855695024133</v>
+        <v>0.07779940217733383</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.002645126078277826</v>
+        <v>0.3584551513195038</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.000141033495310694</v>
+        <v>0.07483585178852081</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.001719624036923051</v>
+        <v>0.4731313288211823</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.001611757092177868</v>
+        <v>0.2349403202533722</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.005203948821872473</v>
+        <v>0.1123232394456863</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.001231684465892613</v>
+        <v>0.2054565250873566</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.001709750038571656</v>
+        <v>0.01413721963763237</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.001720834523439407</v>
+        <v>0.3390565812587738</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.00137440930120647</v>
+        <v>0.05670621991157532</v>
       </c>
       <c r="BO15" t="n">
-        <v>9.94125148281455e-05</v>
+        <v>0.1352168470621109</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.002020575106143951</v>
+        <v>0.08234155178070068</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.001041983137838542</v>
+        <v>0.05253207683563232</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.000772425439208746</v>
+        <v>0.2029956579208374</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.003066266654059291</v>
+        <v>0.01894060149788857</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.0007502012304030359</v>
+        <v>0.05898596346378326</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.006007498595863581</v>
+        <v>0.3108232915401459</v>
       </c>
       <c r="BV15" t="n">
-        <v>3.448541974648833e-05</v>
+        <v>0.05723834782838821</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.002859058324247599</v>
+        <v>0.0374470166862011</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.005448273848742247</v>
+        <v>0.08487904816865921</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.0003696970525197685</v>
+        <v>0.037507563829422</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.002022986533120275</v>
+        <v>0.1006599962711334</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.0007452490390278399</v>
+        <v>0.06632226705551147</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.0003617572947405279</v>
+        <v>0.09896738082170486</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.004155962727963924</v>
+        <v>0.1320458203554153</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.001298199174925685</v>
+        <v>0.2376475632190704</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.0006263532559387386</v>
+        <v>0.1934385746717453</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.0001338717993348837</v>
+        <v>0.07691356539726257</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.002743898890912533</v>
+        <v>0.01707855612039566</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.001247352920472622</v>
+        <v>0.0009789126925170422</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.0008874087361618876</v>
+        <v>0.04002971202135086</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.0003324644640088081</v>
+        <v>0.09897716343402863</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.001198656624183059</v>
+        <v>0.1146794185042381</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.001069754362106323</v>
+        <v>0.09549732506275177</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.002789117395877838</v>
+        <v>0.0004625841975212097</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.0002007281436817721</v>
+        <v>0.2154662907123566</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0003423156449571252</v>
+        <v>0.2444071173667908</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.001310837455093861</v>
+        <v>0.1518344730138779</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.008308777585625648</v>
+        <v>0.006403770297765732</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.004829308018088341</v>
+        <v>0.1141976192593575</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.003876228583976626</v>
+        <v>0.1006608679890633</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.002644482534378767</v>
+        <v>0.09850427508354187</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.002906667534261942</v>
+        <v>0.02877752110362053</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.0009107308578677475</v>
+        <v>0.2007660269737244</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.001576192327775061</v>
+        <v>0.1577259004116058</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.0002055203949566931</v>
+        <v>0.07581756263971329</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.002248933771625161</v>
+        <v>0.001154012978076935</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.0003029145300388336</v>
+        <v>0.05327686294913292</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.001364497700706124</v>
+        <v>0.1192789152264595</v>
       </c>
       <c r="DB15" t="n">
-        <v>8.414455805905163e-06</v>
+        <v>0.09792859852313995</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.001090393750928342</v>
+        <v>0.04768047109246254</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.001348094781860709</v>
+        <v>0.1146577298641205</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.001929847989231348</v>
+        <v>0.05547867342829704</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.004960695281624794</v>
+        <v>0.05856101959943771</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.0004527957644313574</v>
+        <v>0.03179613500833511</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.001779899001121521</v>
+        <v>0.1075201034545898</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.001007512677460909</v>
+        <v>0.334994375705719</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.000269372365437448</v>
+        <v>0.004988282918930054</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.002325096167623997</v>
+        <v>0.1969067752361298</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.004013083409518003</v>
+        <v>0.1083195507526398</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.001139513915404677</v>
+        <v>0.4968125224113464</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.001063281670212746</v>
+        <v>0.009915068745613098</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.002322241896763444</v>
+        <v>0.09656884521245956</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0002219383604824543</v>
+        <v>0.08286035805940628</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.0007175642531365156</v>
+        <v>0.04419419914484024</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.002811199985444546</v>
+        <v>0.2576949596405029</v>
       </c>
       <c r="DS15" t="n">
-        <v>4.513130988925695e-06</v>
+        <v>0.02496863529086113</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.001357048284262419</v>
+        <v>0.3257675468921661</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.002918347483500838</v>
+        <v>0.1265168040990829</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.0002109980559907854</v>
+        <v>0.04977021366357803</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.0005965539603494108</v>
+        <v>0.06604421138763428</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.0003127306408714503</v>
+        <v>0.1338598132133484</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.003009726060554385</v>
+        <v>0.02819998376071453</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.003249977482482791</v>
+        <v>0.09763910621404648</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.002136759459972382</v>
+        <v>0.06103292107582092</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.001691838260740042</v>
+        <v>0.1590134650468826</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.001713153207674623</v>
+        <v>0.09650430828332901</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.002476768102496862</v>
+        <v>0.03894101828336716</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.0007325200131163001</v>
+        <v>0.2077333033084869</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.004465839359909296</v>
+        <v>0.2854985892772675</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.0001043029697029851</v>
+        <v>0.1680333316326141</v>
       </c>
       <c r="EH15" t="n">
-        <v>9.968574158847332e-05</v>
+        <v>0.08288004994392395</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.003058276837691665</v>
+        <v>0.03116926923394203</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.001220258069224656</v>
+        <v>0.01212588790804148</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.0005645873607136309</v>
+        <v>0.0363372229039669</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.0008651866810396314</v>
+        <v>0.03660708665847778</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.001601716270670295</v>
+        <v>0.007003397680819035</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.001425437163561583</v>
+        <v>0.04288861900568008</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.0004948578425683081</v>
+        <v>0.04209383577108383</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.0003763890126720071</v>
+        <v>0.1658964902162552</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.004993957933038473</v>
+        <v>0.1344308406114578</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.002634997013956308</v>
+        <v>0.002222549170255661</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.0005108447512611747</v>
+        <v>0.1810879111289978</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.0009418779518455267</v>
+        <v>0.03127055987715721</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.0004693652153946459</v>
+        <v>0.06677205115556717</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.0002527295728214085</v>
+        <v>0.1320974826812744</v>
       </c>
       <c r="EW15" t="n">
-        <v>9.314337512478232e-05</v>
+        <v>0.2009586989879608</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.001812989357858896</v>
+        <v>0.1893028169870377</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.001187515445053577</v>
+        <v>0.1885461211204529</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.0006641215877607465</v>
+        <v>0.08826618641614914</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.002340366598218679</v>
+        <v>0.0108007900416851</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.0009044721955433488</v>
+        <v>0.007029933389276266</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.0005426834104582667</v>
+        <v>0.09040743112564087</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.0006002079462632537</v>
+        <v>0.1421359777450562</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.001442385721020401</v>
+        <v>0.1045683845877647</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.0001432303106412292</v>
+        <v>0.07870133221149445</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.00220239139162004</v>
+        <v>0.07192650437355042</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.0004952729213982821</v>
+        <v>0.06085445731878281</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.001182149979285896</v>
+        <v>0.05650757998228073</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.003426500130444765</v>
+        <v>0.1436225175857544</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.000933090690523386</v>
+        <v>0.1655035316944122</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.002545203547924757</v>
+        <v>0.001947078853845596</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.0004392933042254299</v>
+        <v>0.04631941765546799</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.001286167651414871</v>
+        <v>0.1737350225448608</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.002329033799469471</v>
+        <v>0.04935234040021896</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.004339899867773056</v>
+        <v>0.3214455842971802</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.002142224926501513</v>
+        <v>0.09446088969707489</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.002777767600491643</v>
+        <v>0.1655554473400116</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.0009728737641125917</v>
+        <v>0.06554947048425674</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.005304547026753426</v>
+        <v>0.08320121467113495</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.002454544883221388</v>
+        <v>0.5625827312469482</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.002106299623847008</v>
+        <v>0.5049178600311279</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.006768278777599335</v>
+        <v>0.1030791699886322</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.001597052672877908</v>
+        <v>0.2899111211299896</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.003425551112741232</v>
+        <v>0.1614322364330292</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.004776617046445608</v>
+        <v>0.1323603242635727</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.001744715264067054</v>
+        <v>0.02440889552235603</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.000190925202332437</v>
+        <v>0.1601226180791855</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.001509394613094628</v>
+        <v>0.07595269381999969</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.001532981405034661</v>
+        <v>0.2858607470989227</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.001130099291913211</v>
+        <v>0.06387864053249359</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.0009834947995841503</v>
+        <v>0.01275103352963924</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.00141708308365196</v>
+        <v>0.07794228941202164</v>
       </c>
     </row>
   </sheetData>
